--- a/lstm_utilization_ratio.xlsx
+++ b/lstm_utilization_ratio.xlsx
@@ -5,15 +5,15 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ECE\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ECE\Desktop\LSTM_IOT_SEC\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8040"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8040" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Utilization Ratio" sheetId="1" r:id="rId1"/>
+    <sheet name="Area" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="62">
   <si>
     <t>S_BQS</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -83,10 +83,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>small adder</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>System</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -135,18 +131,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Module</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Average Area</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Average Area</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>weighted area</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -164,6 +152,125 @@
   </si>
   <si>
     <t>BRANCH</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LUTs</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FFs</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DSP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>INPDT 2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>INPDT 16</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IGN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LSTM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Embedding</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Softmax</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RAMB36</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RAMB18</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Control</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Control</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Total</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SystemCall Detection</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Branch Detection</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(IGN) + top + embedding + (27+36) + Sofmax</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(IGN) + top + embedding + (1029) + Sofmax</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(IGN) + top + embedding + (132) + Sofmax</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(Cycles)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Utilization Percentage</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>합계</t>
+  </si>
+  <si>
+    <t>평균</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>누계</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>개수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Available Resources</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LUT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FF</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BRAM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DSP</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -196,7 +303,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="22">
+  <borders count="33">
     <border>
       <left/>
       <right/>
@@ -347,18 +454,22 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="medium">
         <color indexed="64"/>
       </left>
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color indexed="64"/>
       </left>
       <right style="thin">
@@ -376,7 +487,7 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
+      <right style="medium">
         <color indexed="64"/>
       </right>
       <top style="medium">
@@ -388,13 +499,28 @@
       <diagonal/>
     </border>
     <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
       <right style="medium">
         <color indexed="64"/>
       </right>
-      <top style="medium">
+      <top style="thin">
         <color indexed="64"/>
       </top>
       <bottom style="thin">
@@ -412,7 +538,22 @@
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="thin">
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -427,7 +568,7 @@
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="thin">
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -439,7 +580,7 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="thin">
+      <top style="medium">
         <color indexed="64"/>
       </top>
       <bottom style="medium">
@@ -454,7 +595,7 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="thin">
+      <top style="medium">
         <color indexed="64"/>
       </top>
       <bottom style="medium">
@@ -469,10 +610,131 @@
       <right style="medium">
         <color indexed="64"/>
       </right>
-      <top style="thin">
+      <top style="medium">
         <color indexed="64"/>
       </top>
       <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -483,7 +745,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -523,15 +785,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -553,7 +815,67 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -838,8 +1160,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:P40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -849,20 +1171,20 @@
   <sheetData>
     <row r="1" spans="2:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="C2" s="16"/>
-      <c r="D2" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="E2" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="F2" s="18" t="s">
-        <v>34</v>
+      <c r="C2" s="15"/>
+      <c r="D2" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="E2" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="F2" s="17" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="3" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="C3" s="19" t="s">
-        <v>19</v>
+      <c r="C3" s="18" t="s">
+        <v>18</v>
       </c>
       <c r="D3" s="9">
         <f>100*J21</f>
@@ -872,91 +1194,91 @@
         <f>100*M21</f>
         <v>71.606484380435532</v>
       </c>
-      <c r="F3" s="20">
+      <c r="F3" s="19">
         <f>100*P21</f>
         <v>69.328241181077487</v>
       </c>
     </row>
     <row r="4" spans="2:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C4" s="21" t="s">
-        <v>26</v>
-      </c>
-      <c r="D4" s="22">
+      <c r="C4" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" s="21">
         <f>100*J40</f>
         <v>7.4698054214447156</v>
       </c>
-      <c r="E4" s="22">
+      <c r="E4" s="21">
         <f>100*M40</f>
         <v>12.137311543408144</v>
       </c>
-      <c r="F4" s="23">
+      <c r="F4" s="22">
         <f>100*P40</f>
         <v>90.346039633961567</v>
       </c>
     </row>
     <row r="5" spans="2:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="H5" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I5" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J5" s="5"/>
       <c r="K5" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="L5" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="M5" s="5"/>
       <c r="N5" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="O5" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P5" s="5"/>
     </row>
     <row r="6" spans="2:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B6" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C6" s="9" t="s">
-        <v>24</v>
+        <v>18</v>
+      </c>
+      <c r="C6" s="43" t="s">
+        <v>23</v>
       </c>
       <c r="D6" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="E6" s="15" t="s">
-        <v>29</v>
+      <c r="E6" s="14" t="s">
+        <v>26</v>
       </c>
       <c r="F6" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="H6" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="H6" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="I6" s="7" t="s">
         <v>17</v>
-      </c>
-      <c r="I6" s="7" t="s">
-        <v>18</v>
       </c>
       <c r="J6" s="8"/>
       <c r="K6" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="L6" s="7" t="s">
         <v>17</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>18</v>
       </c>
       <c r="M6" s="8"/>
       <c r="N6" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="O6" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="O6" s="7" t="s">
-        <v>18</v>
-      </c>
       <c r="P6" s="8"/>
     </row>
     <row r="7" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="C7" s="9" t="s">
+      <c r="C7" s="43" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="9">
@@ -966,11 +1288,11 @@
         <f>(2129+2280)/2</f>
         <v>2204.5</v>
       </c>
-      <c r="F7">
+      <c r="F7" s="9">
         <f>E7*D7</f>
         <v>4409</v>
       </c>
-      <c r="H7" s="1">
+      <c r="H7" s="10">
         <v>16</v>
       </c>
       <c r="I7" s="10">
@@ -1002,7 +1324,7 @@
       </c>
     </row>
     <row r="8" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="C8" s="9" t="s">
+      <c r="C8" s="43" t="s">
         <v>0</v>
       </c>
       <c r="D8" s="9">
@@ -1012,35 +1334,35 @@
         <f>(106+104)/2</f>
         <v>105</v>
       </c>
-      <c r="F8">
+      <c r="F8" s="9">
         <f t="shared" ref="F8:F19" si="0">E8*D8</f>
         <v>210</v>
       </c>
-      <c r="H8" s="12">
+      <c r="H8" s="9">
         <v>12</v>
       </c>
       <c r="I8" s="9">
         <v>2</v>
       </c>
-      <c r="J8" s="10">
+      <c r="J8" s="9">
         <f>I8*H8*E8/(6388*27)</f>
         <v>1.4610728449175537E-2</v>
       </c>
       <c r="K8" s="9"/>
       <c r="L8" s="9"/>
-      <c r="M8" s="10">
+      <c r="M8" s="9">
         <f t="shared" ref="M8:M20" si="1">L8*K8*E8/(6388*36)</f>
         <v>0</v>
       </c>
       <c r="N8" s="9"/>
       <c r="O8" s="9"/>
-      <c r="P8" s="10">
+      <c r="P8" s="9">
         <f t="shared" ref="P8:P20" si="2">O8*N8*E8/(6388*1029)</f>
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="C9" s="9" t="s">
+      <c r="C9" s="43" t="s">
         <v>1</v>
       </c>
       <c r="D9" s="9">
@@ -1050,35 +1372,35 @@
         <f>(120+116)/2</f>
         <v>118</v>
       </c>
-      <c r="F9">
+      <c r="F9" s="9">
         <f t="shared" si="0"/>
         <v>236</v>
       </c>
-      <c r="H9" s="12">
+      <c r="H9" s="9">
         <v>4</v>
       </c>
       <c r="I9" s="9">
         <v>2</v>
       </c>
-      <c r="J9" s="10">
+      <c r="J9" s="9">
         <f t="shared" ref="J9:J20" si="3">I9*H9*E9/(6388*27)</f>
         <v>5.473225260326074E-3</v>
       </c>
       <c r="K9" s="9"/>
       <c r="L9" s="9"/>
-      <c r="M9" s="10">
+      <c r="M9" s="9">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="N9" s="9"/>
       <c r="O9" s="9"/>
-      <c r="P9" s="10">
+      <c r="P9" s="9">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="C10" s="9" t="s">
+      <c r="C10" s="43" t="s">
         <v>4</v>
       </c>
       <c r="D10" s="9">
@@ -1088,35 +1410,35 @@
         <f>(110+136)/2</f>
         <v>123</v>
       </c>
-      <c r="F10">
+      <c r="F10" s="9">
         <f t="shared" si="0"/>
         <v>246</v>
       </c>
-      <c r="H10" s="12">
+      <c r="H10" s="9">
         <v>4</v>
       </c>
       <c r="I10" s="9">
         <v>2</v>
       </c>
-      <c r="J10" s="10">
+      <c r="J10" s="9">
         <f t="shared" si="3"/>
         <v>5.7051415849161619E-3</v>
       </c>
       <c r="K10" s="9"/>
       <c r="L10" s="9"/>
-      <c r="M10" s="10">
+      <c r="M10" s="9">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="N10" s="9"/>
       <c r="O10" s="9"/>
-      <c r="P10" s="10">
+      <c r="P10" s="9">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="C11" s="9" t="s">
+      <c r="C11" s="43" t="s">
         <v>5</v>
       </c>
       <c r="D11" s="9">
@@ -1126,62 +1448,62 @@
         <f>(50+53)/2</f>
         <v>51.5</v>
       </c>
-      <c r="F11">
+      <c r="F11" s="9">
         <f t="shared" si="0"/>
         <v>103</v>
       </c>
-      <c r="H11" s="12">
+      <c r="H11" s="9">
         <v>4</v>
       </c>
       <c r="I11" s="9">
         <v>2</v>
       </c>
-      <c r="J11" s="10">
+      <c r="J11" s="9">
         <f t="shared" si="3"/>
         <v>2.3887381432779052E-3</v>
       </c>
       <c r="K11" s="9"/>
       <c r="L11" s="9"/>
-      <c r="M11" s="10">
+      <c r="M11" s="9">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="N11" s="9"/>
       <c r="O11" s="9"/>
-      <c r="P11" s="10">
+      <c r="P11" s="9">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="C12" s="9"/>
+      <c r="C12" s="43"/>
       <c r="D12" s="9"/>
       <c r="E12" s="9"/>
-      <c r="F12">
+      <c r="F12" s="9">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H12" s="12"/>
+      <c r="H12" s="9"/>
       <c r="I12" s="9"/>
-      <c r="J12" s="10">
+      <c r="J12" s="9">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K12" s="9"/>
       <c r="L12" s="9"/>
-      <c r="M12" s="10">
+      <c r="M12" s="9">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="N12" s="9"/>
       <c r="O12" s="9"/>
-      <c r="P12" s="10">
+      <c r="P12" s="9">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="C13" s="9" t="s">
+      <c r="C13" s="43" t="s">
         <v>8</v>
       </c>
       <c r="D13" s="9">
@@ -1191,13 +1513,13 @@
         <f>(300+4)/2</f>
         <v>152</v>
       </c>
-      <c r="F13">
+      <c r="F13" s="9">
         <f t="shared" si="0"/>
         <v>304</v>
       </c>
-      <c r="H13" s="12"/>
+      <c r="H13" s="9"/>
       <c r="I13" s="9"/>
-      <c r="J13" s="10">
+      <c r="J13" s="9">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -1207,19 +1529,19 @@
       <c r="L13" s="9">
         <v>2</v>
       </c>
-      <c r="M13" s="10">
+      <c r="M13" s="9">
         <f t="shared" si="1"/>
         <v>4.2301537605232031E-2</v>
       </c>
       <c r="N13" s="9"/>
       <c r="O13" s="9"/>
-      <c r="P13" s="10">
+      <c r="P13" s="9">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="C14" s="9" t="s">
+      <c r="C14" s="43" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="9">
@@ -1229,13 +1551,13 @@
         <f>(428+5)/2</f>
         <v>216.5</v>
       </c>
-      <c r="F14">
+      <c r="F14" s="9">
         <f t="shared" si="0"/>
         <v>433</v>
       </c>
-      <c r="H14" s="12"/>
+      <c r="H14" s="9"/>
       <c r="I14" s="9"/>
-      <c r="J14" s="10">
+      <c r="J14" s="9">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -1245,19 +1567,19 @@
       <c r="L14" s="9">
         <v>2</v>
       </c>
-      <c r="M14" s="10">
+      <c r="M14" s="9">
         <f t="shared" si="1"/>
         <v>6.0251861128504836E-2</v>
       </c>
       <c r="N14" s="9"/>
       <c r="O14" s="9"/>
-      <c r="P14" s="10">
+      <c r="P14" s="9">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="C15" s="9" t="s">
+      <c r="C15" s="43" t="s">
         <v>10</v>
       </c>
       <c r="D15" s="9">
@@ -1266,19 +1588,19 @@
       <c r="E15" s="9">
         <v>95</v>
       </c>
-      <c r="F15">
+      <c r="F15" s="9">
         <f t="shared" si="0"/>
         <v>95</v>
       </c>
-      <c r="H15" s="12"/>
+      <c r="H15" s="9"/>
       <c r="I15" s="9"/>
-      <c r="J15" s="10">
+      <c r="J15" s="9">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K15" s="9"/>
       <c r="L15" s="9"/>
-      <c r="M15" s="10">
+      <c r="M15" s="9">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -1288,13 +1610,13 @@
       <c r="O15" s="9">
         <v>1</v>
       </c>
-      <c r="P15" s="10">
+      <c r="P15" s="9">
         <f t="shared" si="2"/>
         <v>2.7748822044248419E-3</v>
       </c>
     </row>
     <row r="16" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="C16" s="9" t="s">
+      <c r="C16" s="43" t="s">
         <v>11</v>
       </c>
       <c r="D16" s="9">
@@ -1303,19 +1625,19 @@
       <c r="E16" s="9">
         <v>87</v>
       </c>
-      <c r="F16">
+      <c r="F16" s="9">
         <f t="shared" si="0"/>
         <v>87</v>
       </c>
-      <c r="H16" s="12"/>
+      <c r="H16" s="9"/>
       <c r="I16" s="9"/>
-      <c r="J16" s="10">
+      <c r="J16" s="9">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K16" s="9"/>
       <c r="L16" s="9"/>
-      <c r="M16" s="10">
+      <c r="M16" s="9">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -1325,13 +1647,13 @@
       <c r="O16" s="9">
         <v>1</v>
       </c>
-      <c r="P16" s="10">
+      <c r="P16" s="9">
         <f t="shared" si="2"/>
         <v>8.4706930450863596E-4</v>
       </c>
     </row>
     <row r="17" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="C17" s="9" t="s">
+      <c r="C17" s="43" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="9">
@@ -1340,19 +1662,19 @@
       <c r="E17" s="9">
         <v>120</v>
       </c>
-      <c r="F17">
+      <c r="F17" s="9">
         <f t="shared" si="0"/>
         <v>120</v>
       </c>
-      <c r="H17" s="12"/>
+      <c r="H17" s="9"/>
       <c r="I17" s="9"/>
-      <c r="J17" s="10">
+      <c r="J17" s="9">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K17" s="9"/>
       <c r="L17" s="9"/>
-      <c r="M17" s="10">
+      <c r="M17" s="9">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -1362,13 +1684,13 @@
       <c r="O17" s="9">
         <v>1</v>
       </c>
-      <c r="P17" s="10">
+      <c r="P17" s="9">
         <f t="shared" si="2"/>
         <v>1.1683714544946703E-3</v>
       </c>
     </row>
     <row r="18" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="C18" s="9" t="s">
+      <c r="C18" s="43" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="9">
@@ -1377,19 +1699,19 @@
       <c r="E18" s="9">
         <v>31</v>
       </c>
-      <c r="F18">
+      <c r="F18" s="9">
         <f t="shared" si="0"/>
         <v>31</v>
       </c>
-      <c r="H18" s="12"/>
+      <c r="H18" s="9"/>
       <c r="I18" s="9"/>
-      <c r="J18" s="10">
+      <c r="J18" s="9">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K18" s="9"/>
       <c r="L18" s="9"/>
-      <c r="M18" s="10">
+      <c r="M18" s="9">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -1399,13 +1721,13 @@
       <c r="O18" s="9">
         <v>1</v>
       </c>
-      <c r="P18" s="10">
+      <c r="P18" s="9">
         <f t="shared" si="2"/>
         <v>3.0182929241112313E-4</v>
       </c>
     </row>
     <row r="19" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="C19" s="9" t="s">
+      <c r="C19" s="43" t="s">
         <v>6</v>
       </c>
       <c r="D19" s="9">
@@ -1414,23 +1736,23 @@
       <c r="E19" s="9">
         <v>24</v>
       </c>
-      <c r="F19">
+      <c r="F19" s="9">
         <f t="shared" si="0"/>
         <v>48</v>
       </c>
-      <c r="H19" s="12">
+      <c r="H19" s="9">
         <v>12</v>
       </c>
       <c r="I19" s="9">
         <v>2</v>
       </c>
-      <c r="J19" s="10">
+      <c r="J19" s="9">
         <f t="shared" si="3"/>
         <v>3.3395950740972655E-3</v>
       </c>
       <c r="K19" s="9"/>
       <c r="L19" s="9"/>
-      <c r="M19" s="10">
+      <c r="M19" s="9">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -1440,13 +1762,13 @@
       <c r="O19" s="9">
         <v>1</v>
       </c>
-      <c r="P19" s="10">
+      <c r="P19" s="9">
         <f t="shared" si="2"/>
         <v>7.0102287269680212E-4</v>
       </c>
     </row>
     <row r="20" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="C20" s="9" t="s">
+      <c r="C20" s="43" t="s">
         <v>7</v>
       </c>
       <c r="D20" s="9">
@@ -1455,23 +1777,23 @@
       <c r="E20" s="9">
         <v>33</v>
       </c>
-      <c r="F20">
+      <c r="F20" s="9">
         <f>E20*D20</f>
         <v>66</v>
       </c>
-      <c r="H20" s="12">
+      <c r="H20" s="9">
         <v>8</v>
       </c>
       <c r="I20" s="9">
         <v>2</v>
       </c>
-      <c r="J20" s="10">
+      <c r="J20" s="9">
         <f t="shared" si="3"/>
         <v>3.0612954845891604E-3</v>
       </c>
       <c r="K20" s="9"/>
       <c r="L20" s="9"/>
-      <c r="M20" s="10">
+      <c r="M20" s="9">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -1481,28 +1803,28 @@
       <c r="O20" s="9">
         <v>1</v>
       </c>
-      <c r="P20" s="10">
+      <c r="P20" s="9">
         <f t="shared" si="2"/>
         <v>6.4260429997206863E-4</v>
       </c>
     </row>
     <row r="21" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="E21" t="s">
-        <v>31</v>
-      </c>
-      <c r="F21">
+      <c r="E21" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="F21" s="9">
         <f>SUM(F7:F20)</f>
         <v>6388</v>
       </c>
-      <c r="J21" s="13">
+      <c r="J21" s="14">
         <f>SUM(J7:J20)</f>
         <v>0.44358635404346108</v>
       </c>
-      <c r="M21" s="13">
+      <c r="M21" s="14">
         <f>SUM(M7:M20)</f>
         <v>0.71606484380435531</v>
       </c>
-      <c r="P21">
+      <c r="P21" s="9">
         <f>SUM(P7:P20)</f>
         <v>0.69328241181077488</v>
       </c>
@@ -1510,21 +1832,21 @@
     <row r="23" spans="2:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="24" spans="2:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="H24" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I24" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J24" s="5"/>
       <c r="K24" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="L24" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="M24" s="5"/>
       <c r="N24" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="O24" s="4">
         <v>132</v>
@@ -1533,56 +1855,56 @@
     </row>
     <row r="25" spans="2:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B25" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="C25" s="9" t="s">
-        <v>24</v>
+        <v>18</v>
+      </c>
+      <c r="C25" s="43" t="s">
+        <v>23</v>
       </c>
       <c r="D25" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="E25" s="15" t="s">
-        <v>29</v>
+      <c r="E25" s="14" t="s">
+        <v>26</v>
       </c>
       <c r="F25" s="14" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="H25" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="I25" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="I25" s="7" t="s">
-        <v>18</v>
-      </c>
       <c r="J25" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K25" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="L25" s="7" t="s">
         <v>17</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>18</v>
       </c>
       <c r="M25" s="8"/>
       <c r="N25" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="O25" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="O25" s="7" t="s">
-        <v>18</v>
-      </c>
       <c r="P25" s="8"/>
     </row>
     <row r="26" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="C26" s="9" t="s">
+      <c r="C26" s="43" t="s">
         <v>2</v>
       </c>
       <c r="D26" s="9">
         <v>16</v>
       </c>
-      <c r="E26">
+      <c r="E26" s="9">
         <f>(2056+1978+1736+1820+1802+1773+2010+2033+1913+1737+2011+1771+1804+1881+1977+1956)/16</f>
         <v>1891.125</v>
       </c>
-      <c r="F26">
+      <c r="F26" s="9">
         <f>E26*D26</f>
         <v>30258</v>
       </c>
@@ -1618,16 +1940,16 @@
       </c>
     </row>
     <row r="27" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="C27" s="9" t="s">
+      <c r="C27" s="43" t="s">
         <v>0</v>
       </c>
       <c r="D27" s="9">
         <v>2</v>
       </c>
-      <c r="E27">
+      <c r="E27" s="9">
         <v>113</v>
       </c>
-      <c r="F27">
+      <c r="F27" s="9">
         <f t="shared" ref="F27:F39" si="4">E27*D27</f>
         <v>226</v>
       </c>
@@ -1655,17 +1977,17 @@
       </c>
     </row>
     <row r="28" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="C28" s="9" t="s">
+      <c r="C28" s="43" t="s">
         <v>1</v>
       </c>
       <c r="D28" s="9">
         <v>2</v>
       </c>
-      <c r="E28">
+      <c r="E28" s="9">
         <f>(95+101)/2</f>
         <v>98</v>
       </c>
-      <c r="F28">
+      <c r="F28" s="9">
         <f t="shared" si="4"/>
         <v>196</v>
       </c>
@@ -1693,17 +2015,17 @@
       </c>
     </row>
     <row r="29" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="C29" s="9" t="s">
+      <c r="C29" s="43" t="s">
         <v>4</v>
       </c>
       <c r="D29" s="9">
         <v>2</v>
       </c>
-      <c r="E29">
+      <c r="E29" s="9">
         <f>(116+122)/2</f>
         <v>119</v>
       </c>
-      <c r="F29">
+      <c r="F29" s="9">
         <f t="shared" si="4"/>
         <v>238</v>
       </c>
@@ -1731,17 +2053,17 @@
       </c>
     </row>
     <row r="30" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="C30" s="9" t="s">
+      <c r="C30" s="43" t="s">
         <v>5</v>
       </c>
       <c r="D30" s="9">
         <v>2</v>
       </c>
-      <c r="E30">
+      <c r="E30" s="9">
         <f>(49+62)/2</f>
         <v>55.5</v>
       </c>
-      <c r="F30">
+      <c r="F30" s="9">
         <f t="shared" si="4"/>
         <v>111</v>
       </c>
@@ -1769,9 +2091,10 @@
       </c>
     </row>
     <row r="31" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="C31" s="9"/>
+      <c r="C31" s="43"/>
       <c r="D31" s="9"/>
-      <c r="F31">
+      <c r="E31" s="9"/>
+      <c r="F31" s="9">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -1795,17 +2118,17 @@
       </c>
     </row>
     <row r="32" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="C32" s="9" t="s">
+      <c r="C32" s="43" t="s">
         <v>8</v>
       </c>
       <c r="D32" s="9">
         <v>2</v>
       </c>
-      <c r="E32">
+      <c r="E32" s="9">
         <f>(134+117)/2</f>
         <v>125.5</v>
       </c>
-      <c r="F32">
+      <c r="F32" s="9">
         <f t="shared" si="4"/>
         <v>251</v>
       </c>
@@ -1833,17 +2156,17 @@
       </c>
     </row>
     <row r="33" spans="3:16" x14ac:dyDescent="0.3">
-      <c r="C33" s="9" t="s">
+      <c r="C33" s="43" t="s">
         <v>9</v>
       </c>
       <c r="D33" s="9">
         <v>2</v>
       </c>
-      <c r="E33">
+      <c r="E33" s="9">
         <f>(428+45)/2</f>
         <v>236.5</v>
       </c>
-      <c r="F33">
+      <c r="F33" s="9">
         <f t="shared" si="4"/>
         <v>473</v>
       </c>
@@ -1871,16 +2194,16 @@
       </c>
     </row>
     <row r="34" spans="3:16" x14ac:dyDescent="0.3">
-      <c r="C34" s="9" t="s">
+      <c r="C34" s="43" t="s">
         <v>10</v>
       </c>
       <c r="D34" s="9">
         <v>2</v>
       </c>
-      <c r="E34">
+      <c r="E34" s="9">
         <v>135</v>
       </c>
-      <c r="F34">
+      <c r="F34" s="9">
         <f t="shared" si="4"/>
         <v>270</v>
       </c>
@@ -1908,16 +2231,16 @@
       </c>
     </row>
     <row r="35" spans="3:16" x14ac:dyDescent="0.3">
-      <c r="C35" s="9" t="s">
+      <c r="C35" s="43" t="s">
         <v>11</v>
       </c>
       <c r="D35" s="9">
         <v>2</v>
       </c>
-      <c r="E35">
+      <c r="E35" s="9">
         <v>175</v>
       </c>
-      <c r="F35">
+      <c r="F35" s="9">
         <f t="shared" si="4"/>
         <v>350</v>
       </c>
@@ -1945,17 +2268,17 @@
       </c>
     </row>
     <row r="36" spans="3:16" x14ac:dyDescent="0.3">
-      <c r="C36" s="9" t="s">
+      <c r="C36" s="43" t="s">
         <v>12</v>
       </c>
       <c r="D36" s="9">
         <v>2</v>
       </c>
-      <c r="E36">
+      <c r="E36" s="9">
         <f>(116+211)/2</f>
         <v>163.5</v>
       </c>
-      <c r="F36">
+      <c r="F36" s="9">
         <f t="shared" si="4"/>
         <v>327</v>
       </c>
@@ -1983,17 +2306,17 @@
       </c>
     </row>
     <row r="37" spans="3:16" x14ac:dyDescent="0.3">
-      <c r="C37" s="9" t="s">
+      <c r="C37" s="43" t="s">
         <v>13</v>
       </c>
       <c r="D37" s="9">
         <v>2</v>
       </c>
-      <c r="E37">
+      <c r="E37" s="9">
         <f>(96+88)/2</f>
         <v>92</v>
       </c>
-      <c r="F37">
+      <c r="F37" s="9">
         <f t="shared" si="4"/>
         <v>184</v>
       </c>
@@ -2021,16 +2344,16 @@
       </c>
     </row>
     <row r="38" spans="3:16" x14ac:dyDescent="0.3">
-      <c r="C38" s="9" t="s">
+      <c r="C38" s="43" t="s">
         <v>6</v>
       </c>
       <c r="D38" s="9">
         <v>2</v>
       </c>
-      <c r="E38">
+      <c r="E38" s="9">
         <v>26</v>
       </c>
-      <c r="F38">
+      <c r="F38" s="9">
         <f t="shared" si="4"/>
         <v>52</v>
       </c>
@@ -2062,16 +2385,16 @@
       </c>
     </row>
     <row r="39" spans="3:16" x14ac:dyDescent="0.3">
-      <c r="C39" s="9" t="s">
+      <c r="C39" s="43" t="s">
         <v>7</v>
       </c>
       <c r="D39" s="9">
         <v>2</v>
       </c>
-      <c r="E39">
+      <c r="E39" s="9">
         <v>33</v>
       </c>
-      <c r="F39">
+      <c r="F39" s="9">
         <f t="shared" si="4"/>
         <v>66</v>
       </c>
@@ -2103,22 +2426,22 @@
       </c>
     </row>
     <row r="40" spans="3:16" x14ac:dyDescent="0.3">
-      <c r="E40" t="s">
-        <v>31</v>
-      </c>
-      <c r="F40">
+      <c r="E40" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="F40" s="9">
         <f>SUM(F26:F39)</f>
         <v>33002</v>
       </c>
-      <c r="J40" s="13">
+      <c r="J40" s="14">
         <f>SUM(J26:J39)</f>
         <v>7.4698054214447154E-2</v>
       </c>
-      <c r="M40" s="13">
+      <c r="M40" s="14">
         <f>SUM(M26:M39)</f>
         <v>0.12137311543408144</v>
       </c>
-      <c r="P40">
+      <c r="P40" s="9">
         <f>SUM(P26:P39)</f>
         <v>0.90346039633961572</v>
       </c>
@@ -2132,94 +2455,484 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:D18"/>
+  <dimension ref="A3:M30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="9" customWidth="1"/>
+    <col min="3" max="3" width="19.25" customWidth="1"/>
+    <col min="4" max="7" width="15.75" customWidth="1"/>
+    <col min="10" max="10" width="15.75" customWidth="1"/>
+    <col min="11" max="12" width="41.75" customWidth="1"/>
+    <col min="13" max="13" width="17.5" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="3" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="4" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C4" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="D4" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C5" s="9" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C6" s="9" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C7" s="9" t="s">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A3" s="23"/>
+      <c r="B3" s="23"/>
+      <c r="C3" s="23"/>
+      <c r="J3" s="23"/>
+      <c r="K3" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="L3" s="13" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="23"/>
+      <c r="J4" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="K4" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="L4" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="M4" s="13" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="23"/>
+      <c r="B5" s="23"/>
+      <c r="C5" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="D5" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="E5" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="F5" s="26" t="s">
+        <v>41</v>
+      </c>
+      <c r="G5" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="H5" s="28" t="s">
+        <v>34</v>
+      </c>
+      <c r="J5" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="K5" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="L5" s="23" t="s">
+        <v>50</v>
+      </c>
+      <c r="M5" s="13" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A6" s="23"/>
+      <c r="B6" s="23"/>
+      <c r="C6" s="30" t="s">
+        <v>37</v>
+      </c>
+      <c r="D6" s="1">
+        <v>12872</v>
+      </c>
+      <c r="E6" s="10">
+        <v>1499</v>
+      </c>
+      <c r="F6" s="10">
+        <v>0</v>
+      </c>
+      <c r="G6" s="24">
+        <v>10</v>
+      </c>
+      <c r="H6" s="40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A7" s="23"/>
+      <c r="B7" s="23"/>
+      <c r="C7" s="31" t="s">
+        <v>38</v>
+      </c>
+      <c r="D7" s="12">
+        <v>8529</v>
+      </c>
+      <c r="E7" s="9">
+        <v>2282</v>
+      </c>
+      <c r="F7" s="9">
+        <v>14</v>
+      </c>
+      <c r="G7" s="14">
+        <v>3</v>
+      </c>
+      <c r="H7" s="41">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A8" s="23"/>
+      <c r="B8" s="23"/>
+      <c r="C8" s="31" t="s">
+        <v>39</v>
+      </c>
+      <c r="D8" s="12">
+        <v>368</v>
+      </c>
+      <c r="E8" s="9">
+        <v>0</v>
+      </c>
+      <c r="F8" s="9">
+        <v>64</v>
+      </c>
+      <c r="G8" s="9">
+        <v>3</v>
+      </c>
+      <c r="H8" s="41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A9" s="23"/>
+      <c r="C9" s="31" t="s">
+        <v>40</v>
+      </c>
+      <c r="D9" s="29">
+        <v>397</v>
+      </c>
+      <c r="E9" s="14">
+        <v>649</v>
+      </c>
+      <c r="F9" s="14">
+        <v>11</v>
+      </c>
+      <c r="G9" s="14">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C8" s="9" t="s">
+      <c r="H9" s="41">
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C9" s="9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C10" s="9" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C11" s="9" t="s">
+    <row r="10" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="23"/>
+      <c r="C10" s="32" t="s">
+        <v>43</v>
+      </c>
+      <c r="D10" s="38">
+        <v>239</v>
+      </c>
+      <c r="E10" s="39">
+        <v>0</v>
+      </c>
+      <c r="F10" s="39">
+        <v>0</v>
+      </c>
+      <c r="G10" s="39">
+        <v>0</v>
+      </c>
+      <c r="H10" s="42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="23"/>
+      <c r="C11" s="33" t="s">
+        <v>45</v>
+      </c>
+      <c r="D11" s="25">
+        <f>SUM(D6:D10)</f>
+        <v>22405</v>
+      </c>
+      <c r="E11" s="26">
+        <f t="shared" ref="E11:H11" si="0">SUM(E6:E10)</f>
+        <v>4430</v>
+      </c>
+      <c r="F11" s="26">
+        <f t="shared" si="0"/>
+        <v>89</v>
+      </c>
+      <c r="G11" s="26">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="H11" s="34">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A12" s="23"/>
+      <c r="C12" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="D12" s="9">
+        <v>10.249313815187557</v>
+      </c>
+      <c r="E12" s="9">
+        <v>1.0132662397072278</v>
+      </c>
+      <c r="F12" s="9">
+        <v>19.449541284403672</v>
+      </c>
+      <c r="G12" s="9"/>
+      <c r="H12" s="9">
+        <v>1.1111111111111112</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A13" s="23"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A14" s="23"/>
+    </row>
+    <row r="15" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="23"/>
+      <c r="B15" s="23"/>
+    </row>
+    <row r="16" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="23"/>
+      <c r="B16" s="23"/>
+      <c r="C16" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="D16" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="E16" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="F16" s="26" t="s">
+        <v>41</v>
+      </c>
+      <c r="G16" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="H16" s="28" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A17" s="23"/>
+      <c r="B17" s="23"/>
+      <c r="C17" s="36" t="s">
+        <v>37</v>
+      </c>
+      <c r="D17" s="37">
+        <v>12870</v>
+      </c>
+      <c r="E17" s="24">
+        <v>1499</v>
+      </c>
+      <c r="F17" s="24">
+        <v>0</v>
+      </c>
+      <c r="G17" s="24">
+        <v>10</v>
+      </c>
+      <c r="H17" s="40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A18" s="23"/>
+      <c r="B18" s="23"/>
+      <c r="C18" s="31" t="s">
+        <v>38</v>
+      </c>
+      <c r="D18" s="29">
+        <v>33494</v>
+      </c>
+      <c r="E18" s="14">
+        <v>2434</v>
+      </c>
+      <c r="F18" s="14">
+        <v>42</v>
+      </c>
+      <c r="G18" s="14">
+        <v>7</v>
+      </c>
+      <c r="H18" s="41">
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C12" s="9" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="13" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C13" s="9" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="14" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C14" s="9" t="s">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A19" s="23"/>
+      <c r="B19" s="23"/>
+      <c r="C19" s="31" t="s">
+        <v>39</v>
+      </c>
+      <c r="D19" s="12">
+        <v>512</v>
+      </c>
+      <c r="E19" s="9">
+        <v>3</v>
+      </c>
+      <c r="F19" s="9">
+        <v>64</v>
+      </c>
+      <c r="G19" s="14">
+        <v>2</v>
+      </c>
+      <c r="H19" s="41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A20" s="23"/>
+      <c r="B20" s="23"/>
+      <c r="C20" s="31" t="s">
+        <v>40</v>
+      </c>
+      <c r="D20" s="29">
+        <v>398</v>
+      </c>
+      <c r="E20" s="14">
+        <v>649</v>
+      </c>
+      <c r="F20" s="14">
         <v>11</v>
       </c>
-    </row>
-    <row r="15" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C15" s="9" t="s">
+      <c r="G20" s="14">
+        <v>1</v>
+      </c>
+      <c r="H20" s="41">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="23"/>
+      <c r="B21" s="23"/>
+      <c r="C21" s="32" t="s">
+        <v>44</v>
+      </c>
+      <c r="D21" s="38">
+        <v>2964</v>
+      </c>
+      <c r="E21" s="39">
+        <v>0</v>
+      </c>
+      <c r="F21" s="39">
+        <v>0</v>
+      </c>
+      <c r="G21" s="39">
+        <v>0</v>
+      </c>
+      <c r="H21" s="42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="23"/>
+      <c r="B22" s="23"/>
+      <c r="C22" s="35" t="s">
+        <v>45</v>
+      </c>
+      <c r="D22" s="25">
+        <f>SUM(D17:D21)</f>
+        <v>50238</v>
+      </c>
+      <c r="E22" s="26">
+        <f t="shared" ref="E22:H22" si="1">SUM(E17:E21)</f>
+        <v>4585</v>
+      </c>
+      <c r="F22" s="26">
+        <f t="shared" si="1"/>
+        <v>117</v>
+      </c>
+      <c r="G22" s="26">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="H22" s="34">
+        <f t="shared" si="1"/>
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C16" s="9" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="17" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C17" s="9" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="18" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C18" s="9" t="s">
-        <v>7</v>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A23" s="23"/>
+      <c r="B23" s="23"/>
+      <c r="C23" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="D23" s="9">
+        <v>22.981701738334859</v>
+      </c>
+      <c r="E23" s="9">
+        <v>1.0487191216834402</v>
+      </c>
+      <c r="F23" s="9">
+        <v>21.467889908256883</v>
+      </c>
+      <c r="G23" s="9"/>
+      <c r="H23" s="9">
+        <v>1.3333333333333335</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A24" s="23"/>
+      <c r="B24" s="23"/>
+      <c r="C24" s="23"/>
+      <c r="D24" s="23"/>
+      <c r="E24" s="23"/>
+      <c r="F24" s="23"/>
+      <c r="G24" s="23"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A25" s="23"/>
+      <c r="B25" s="23"/>
+      <c r="C25" s="23"/>
+      <c r="D25" s="23"/>
+      <c r="E25" s="23"/>
+      <c r="F25" s="23"/>
+      <c r="G25" s="23"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A26" s="23"/>
+      <c r="B26" s="23"/>
+      <c r="C26" s="23"/>
+      <c r="D26" s="23"/>
+      <c r="E26" s="23"/>
+      <c r="F26" s="23"/>
+      <c r="G26" s="23"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C29" s="9"/>
+      <c r="D29" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="E29" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="F29" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="G29" s="9"/>
+      <c r="H29" s="9" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C30" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="D30" s="9">
+        <v>218600</v>
+      </c>
+      <c r="E30" s="9">
+        <v>437200</v>
+      </c>
+      <c r="F30" s="9">
+        <v>545</v>
+      </c>
+      <c r="G30" s="9"/>
+      <c r="H30" s="9">
+        <v>900</v>
       </c>
     </row>
   </sheetData>

--- a/lstm_utilization_ratio.xlsx
+++ b/lstm_utilization_ratio.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8040" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8040"/>
   </bookViews>
   <sheets>
     <sheet name="Utilization Ratio" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="61">
   <si>
     <t>S_BQS</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -131,10 +131,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Average Area</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>weighted area</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -239,21 +235,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>합계</t>
-  </si>
-  <si>
-    <t>평균</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>누계</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>개수</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Available Resources</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -271,6 +252,22 @@
   </si>
   <si>
     <t>DSP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Utilization Ratio</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Average Utilization (If full 30 branches are ran per single syscall)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Average Area (LUT)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Average Area (LUT)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1158,10 +1155,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:P40"/>
+  <dimension ref="B1:P41"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1171,15 +1168,20 @@
   <sheetData>
     <row r="1" spans="2:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="C2" s="15"/>
+      <c r="C2" s="15" t="s">
+        <v>57</v>
+      </c>
       <c r="D2" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="E2" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="E2" s="16" t="s">
+      <c r="F2" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="F2" s="17" t="s">
-        <v>31</v>
+      <c r="G2" s="13" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="3" spans="2:16" x14ac:dyDescent="0.3">
@@ -1187,16 +1189,20 @@
         <v>18</v>
       </c>
       <c r="D3" s="9">
-        <f>100*J21</f>
+        <f>100*J22</f>
         <v>44.35863540434611</v>
       </c>
       <c r="E3" s="9">
-        <f>100*M21</f>
+        <f>100*M22</f>
         <v>71.606484380435532</v>
       </c>
       <c r="F3" s="19">
-        <f>100*P21</f>
+        <f>100*P22</f>
         <v>69.328241181077487</v>
+      </c>
+      <c r="G3">
+        <f>(44.36*27+71.61*36+69.33*1029*30)/(27+36+1029*30)</f>
+        <v>69.31085830666278</v>
       </c>
     </row>
     <row r="4" spans="2:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -1204,215 +1210,182 @@
         <v>25</v>
       </c>
       <c r="D4" s="21">
-        <f>100*J40</f>
+        <f>100*J41</f>
         <v>7.4698054214447156</v>
       </c>
       <c r="E4" s="21">
-        <f>100*M40</f>
+        <f>100*M41</f>
         <v>12.137311543408144</v>
       </c>
       <c r="F4" s="22">
-        <f>100*P40</f>
+        <f>100*P41</f>
         <v>90.346039633961567</v>
       </c>
-    </row>
-    <row r="5" spans="2:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H5" s="3" t="s">
+      <c r="G4">
+        <f>(27*7.47 + 12.14*36 + 132*30*90.34)/(27+36+132*30)</f>
+        <v>89.084049217002232</v>
+      </c>
+    </row>
+    <row r="5" spans="2:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="6" spans="2:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H6" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="I5" s="4" t="s">
+      <c r="I6" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="J5" s="5"/>
-      <c r="K5" s="3" t="s">
+      <c r="J6" s="5"/>
+      <c r="K6" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="L5" s="4" t="s">
+      <c r="L6" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="M5" s="5"/>
-      <c r="N5" s="3" t="s">
+      <c r="M6" s="5"/>
+      <c r="N6" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="O5" s="4" t="s">
+      <c r="O6" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="P5" s="5"/>
-    </row>
-    <row r="6" spans="2:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="2" t="s">
+      <c r="P6" s="5"/>
+    </row>
+    <row r="7" spans="2:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B7" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="43" t="s">
+      <c r="C7" s="43" t="s">
         <v>23</v>
       </c>
-      <c r="D6" s="9" t="s">
+      <c r="D7" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="E6" s="14" t="s">
+      <c r="E7" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="F7" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="F6" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="H6" s="6" t="s">
+      <c r="H7" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="I6" s="7" t="s">
+      <c r="I7" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="J6" s="8"/>
-      <c r="K6" s="6" t="s">
+      <c r="J7" s="8"/>
+      <c r="K7" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="L6" s="7" t="s">
+      <c r="L7" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="M6" s="8"/>
-      <c r="N6" s="6" t="s">
+      <c r="M7" s="8"/>
+      <c r="N7" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="O6" s="7" t="s">
+      <c r="O7" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="P6" s="8"/>
-    </row>
-    <row r="7" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="C7" s="43" t="s">
-        <v>2</v>
-      </c>
-      <c r="D7" s="9">
-        <v>2</v>
-      </c>
-      <c r="E7" s="9">
+      <c r="P7" s="8"/>
+    </row>
+    <row r="8" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="C8" s="43" t="s">
+        <v>2</v>
+      </c>
+      <c r="D8" s="9">
+        <v>2</v>
+      </c>
+      <c r="E8" s="9">
         <f>(2129+2280)/2</f>
         <v>2204.5</v>
       </c>
-      <c r="F7" s="9">
-        <f>E7*D7</f>
+      <c r="F8" s="9">
+        <f>E8*D8</f>
         <v>4409</v>
       </c>
-      <c r="H7" s="10">
+      <c r="H8" s="10">
         <v>16</v>
       </c>
-      <c r="I7" s="10">
-        <v>2</v>
-      </c>
-      <c r="J7" s="10">
-        <f>I7*H7*E7/(6388*27)</f>
+      <c r="I8" s="10">
+        <v>2</v>
+      </c>
+      <c r="J8" s="10">
+        <f>I8*H8*E8/(6388*27)</f>
         <v>0.40900763004707902</v>
       </c>
-      <c r="K7" s="10">
+      <c r="K8" s="10">
         <v>32</v>
       </c>
-      <c r="L7" s="10">
-        <v>2</v>
-      </c>
-      <c r="M7" s="10">
-        <f>L7*K7*E7/(6388*36)</f>
+      <c r="L8" s="10">
+        <v>2</v>
+      </c>
+      <c r="M8" s="10">
+        <f>L8*K8*E8/(6388*36)</f>
         <v>0.6135114450706185</v>
       </c>
-      <c r="N7" s="10">
+      <c r="N8" s="10">
         <v>1024</v>
       </c>
-      <c r="O7" s="10">
-        <v>2</v>
-      </c>
-      <c r="P7" s="10">
-        <f>O7*N7*E7/(6388*1029)</f>
+      <c r="O8" s="10">
+        <v>2</v>
+      </c>
+      <c r="P8" s="10">
+        <f>O8*N8*E8/(6388*1029)</f>
         <v>0.68684663238226684</v>
       </c>
     </row>
-    <row r="8" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="C8" s="43" t="s">
-        <v>0</v>
-      </c>
-      <c r="D8" s="9">
-        <v>2</v>
-      </c>
-      <c r="E8" s="9">
+    <row r="9" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="C9" s="43" t="s">
+        <v>0</v>
+      </c>
+      <c r="D9" s="9">
+        <v>2</v>
+      </c>
+      <c r="E9" s="9">
         <f>(106+104)/2</f>
         <v>105</v>
       </c>
-      <c r="F8" s="9">
-        <f t="shared" ref="F8:F19" si="0">E8*D8</f>
+      <c r="F9" s="9">
+        <f t="shared" ref="F9:F20" si="0">E9*D9</f>
         <v>210</v>
       </c>
-      <c r="H8" s="9">
+      <c r="H9" s="9">
         <v>12</v>
       </c>
-      <c r="I8" s="9">
-        <v>2</v>
-      </c>
-      <c r="J8" s="9">
-        <f>I8*H8*E8/(6388*27)</f>
+      <c r="I9" s="9">
+        <v>2</v>
+      </c>
+      <c r="J9" s="9">
+        <f>I9*H9*E9/(6388*27)</f>
         <v>1.4610728449175537E-2</v>
-      </c>
-      <c r="K8" s="9"/>
-      <c r="L8" s="9"/>
-      <c r="M8" s="9">
-        <f t="shared" ref="M8:M20" si="1">L8*K8*E8/(6388*36)</f>
-        <v>0</v>
-      </c>
-      <c r="N8" s="9"/>
-      <c r="O8" s="9"/>
-      <c r="P8" s="9">
-        <f t="shared" ref="P8:P20" si="2">O8*N8*E8/(6388*1029)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="C9" s="43" t="s">
-        <v>1</v>
-      </c>
-      <c r="D9" s="9">
-        <v>2</v>
-      </c>
-      <c r="E9" s="9">
-        <f>(120+116)/2</f>
-        <v>118</v>
-      </c>
-      <c r="F9" s="9">
-        <f t="shared" si="0"/>
-        <v>236</v>
-      </c>
-      <c r="H9" s="9">
-        <v>4</v>
-      </c>
-      <c r="I9" s="9">
-        <v>2</v>
-      </c>
-      <c r="J9" s="9">
-        <f t="shared" ref="J9:J20" si="3">I9*H9*E9/(6388*27)</f>
-        <v>5.473225260326074E-3</v>
       </c>
       <c r="K9" s="9"/>
       <c r="L9" s="9"/>
       <c r="M9" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="M9:M21" si="1">L9*K9*E9/(6388*36)</f>
         <v>0</v>
       </c>
       <c r="N9" s="9"/>
       <c r="O9" s="9"/>
       <c r="P9" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="P9:P21" si="2">O9*N9*E9/(6388*1029)</f>
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="2:16" x14ac:dyDescent="0.3">
       <c r="C10" s="43" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D10" s="9">
         <v>2</v>
       </c>
       <c r="E10" s="9">
-        <f>(110+136)/2</f>
-        <v>123</v>
+        <f>(120+116)/2</f>
+        <v>118</v>
       </c>
       <c r="F10" s="9">
         <f t="shared" si="0"/>
-        <v>246</v>
+        <v>236</v>
       </c>
       <c r="H10" s="9">
         <v>4</v>
@@ -1421,8 +1394,8 @@
         <v>2</v>
       </c>
       <c r="J10" s="9">
-        <f t="shared" si="3"/>
-        <v>5.7051415849161619E-3</v>
+        <f t="shared" ref="J10:J21" si="3">I10*H10*E10/(6388*27)</f>
+        <v>5.473225260326074E-3</v>
       </c>
       <c r="K10" s="9"/>
       <c r="L10" s="9"/>
@@ -1439,18 +1412,18 @@
     </row>
     <row r="11" spans="2:16" x14ac:dyDescent="0.3">
       <c r="C11" s="43" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D11" s="9">
         <v>2</v>
       </c>
       <c r="E11" s="9">
-        <f>(50+53)/2</f>
-        <v>51.5</v>
+        <f>(110+136)/2</f>
+        <v>123</v>
       </c>
       <c r="F11" s="9">
         <f t="shared" si="0"/>
-        <v>103</v>
+        <v>246</v>
       </c>
       <c r="H11" s="9">
         <v>4</v>
@@ -1460,7 +1433,7 @@
       </c>
       <c r="J11" s="9">
         <f t="shared" si="3"/>
-        <v>2.3887381432779052E-3</v>
+        <v>5.7051415849161619E-3</v>
       </c>
       <c r="K11" s="9"/>
       <c r="L11" s="9"/>
@@ -1476,18 +1449,29 @@
       </c>
     </row>
     <row r="12" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="C12" s="43"/>
-      <c r="D12" s="9"/>
-      <c r="E12" s="9"/>
+      <c r="C12" s="43" t="s">
+        <v>5</v>
+      </c>
+      <c r="D12" s="9">
+        <v>2</v>
+      </c>
+      <c r="E12" s="9">
+        <f>(50+53)/2</f>
+        <v>51.5</v>
+      </c>
       <c r="F12" s="9">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H12" s="9"/>
-      <c r="I12" s="9"/>
+        <v>103</v>
+      </c>
+      <c r="H12" s="9">
+        <v>4</v>
+      </c>
+      <c r="I12" s="9">
+        <v>2</v>
+      </c>
       <c r="J12" s="9">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>2.3887381432779052E-3</v>
       </c>
       <c r="K12" s="9"/>
       <c r="L12" s="9"/>
@@ -1503,19 +1487,12 @@
       </c>
     </row>
     <row r="13" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="C13" s="43" t="s">
-        <v>8</v>
-      </c>
-      <c r="D13" s="9">
-        <v>2</v>
-      </c>
-      <c r="E13" s="9">
-        <f>(300+4)/2</f>
-        <v>152</v>
-      </c>
+      <c r="C13" s="43"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="9"/>
       <c r="F13" s="9">
         <f t="shared" si="0"/>
-        <v>304</v>
+        <v>0</v>
       </c>
       <c r="H13" s="9"/>
       <c r="I13" s="9"/>
@@ -1523,15 +1500,11 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="K13" s="9">
-        <v>32</v>
-      </c>
-      <c r="L13" s="9">
-        <v>2</v>
-      </c>
+      <c r="K13" s="9"/>
+      <c r="L13" s="9"/>
       <c r="M13" s="9">
         <f t="shared" si="1"/>
-        <v>4.2301537605232031E-2</v>
+        <v>0</v>
       </c>
       <c r="N13" s="9"/>
       <c r="O13" s="9"/>
@@ -1542,18 +1515,18 @@
     </row>
     <row r="14" spans="2:16" x14ac:dyDescent="0.3">
       <c r="C14" s="43" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D14" s="9">
         <v>2</v>
       </c>
       <c r="E14" s="9">
-        <f>(428+5)/2</f>
-        <v>216.5</v>
+        <f>(300+4)/2</f>
+        <v>152</v>
       </c>
       <c r="F14" s="9">
         <f t="shared" si="0"/>
-        <v>433</v>
+        <v>304</v>
       </c>
       <c r="H14" s="9"/>
       <c r="I14" s="9"/>
@@ -1569,7 +1542,7 @@
       </c>
       <c r="M14" s="9">
         <f t="shared" si="1"/>
-        <v>6.0251861128504836E-2</v>
+        <v>4.2301537605232031E-2</v>
       </c>
       <c r="N14" s="9"/>
       <c r="O14" s="9"/>
@@ -1580,17 +1553,18 @@
     </row>
     <row r="15" spans="2:16" x14ac:dyDescent="0.3">
       <c r="C15" s="43" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D15" s="9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E15" s="9">
-        <v>95</v>
+        <f>(428+5)/2</f>
+        <v>216.5</v>
       </c>
       <c r="F15" s="9">
         <f t="shared" si="0"/>
-        <v>95</v>
+        <v>433</v>
       </c>
       <c r="H15" s="9"/>
       <c r="I15" s="9"/>
@@ -1598,36 +1572,36 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="K15" s="9"/>
-      <c r="L15" s="9"/>
+      <c r="K15" s="9">
+        <v>32</v>
+      </c>
+      <c r="L15" s="9">
+        <v>2</v>
+      </c>
       <c r="M15" s="9">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="N15" s="9">
-        <v>192</v>
-      </c>
-      <c r="O15" s="9">
-        <v>1</v>
-      </c>
+        <v>6.0251861128504836E-2</v>
+      </c>
+      <c r="N15" s="9"/>
+      <c r="O15" s="9"/>
       <c r="P15" s="9">
         <f t="shared" si="2"/>
-        <v>2.7748822044248419E-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="2:16" x14ac:dyDescent="0.3">
       <c r="C16" s="43" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D16" s="9">
         <v>1</v>
       </c>
       <c r="E16" s="9">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="F16" s="9">
         <f t="shared" si="0"/>
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="H16" s="9"/>
       <c r="I16" s="9"/>
@@ -1642,29 +1616,29 @@
         <v>0</v>
       </c>
       <c r="N16" s="9">
-        <v>64</v>
+        <v>192</v>
       </c>
       <c r="O16" s="9">
         <v>1</v>
       </c>
       <c r="P16" s="9">
         <f t="shared" si="2"/>
-        <v>8.4706930450863596E-4</v>
+        <v>2.7748822044248419E-3</v>
       </c>
     </row>
     <row r="17" spans="2:16" x14ac:dyDescent="0.3">
       <c r="C17" s="43" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D17" s="9">
         <v>1</v>
       </c>
       <c r="E17" s="9">
-        <v>120</v>
+        <v>87</v>
       </c>
       <c r="F17" s="9">
         <f t="shared" si="0"/>
-        <v>120</v>
+        <v>87</v>
       </c>
       <c r="H17" s="9"/>
       <c r="I17" s="9"/>
@@ -1686,22 +1660,22 @@
       </c>
       <c r="P17" s="9">
         <f t="shared" si="2"/>
-        <v>1.1683714544946703E-3</v>
+        <v>8.4706930450863596E-4</v>
       </c>
     </row>
     <row r="18" spans="2:16" x14ac:dyDescent="0.3">
       <c r="C18" s="43" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D18" s="9">
         <v>1</v>
       </c>
       <c r="E18" s="9">
-        <v>31</v>
+        <v>120</v>
       </c>
       <c r="F18" s="9">
         <f t="shared" si="0"/>
-        <v>31</v>
+        <v>120</v>
       </c>
       <c r="H18" s="9"/>
       <c r="I18" s="9"/>
@@ -1723,32 +1697,28 @@
       </c>
       <c r="P18" s="9">
         <f t="shared" si="2"/>
-        <v>3.0182929241112313E-4</v>
+        <v>1.1683714544946703E-3</v>
       </c>
     </row>
     <row r="19" spans="2:16" x14ac:dyDescent="0.3">
       <c r="C19" s="43" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="D19" s="9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E19" s="9">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="F19" s="9">
         <f t="shared" si="0"/>
-        <v>48</v>
-      </c>
-      <c r="H19" s="9">
-        <v>12</v>
-      </c>
-      <c r="I19" s="9">
-        <v>2</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="H19" s="9"/>
+      <c r="I19" s="9"/>
       <c r="J19" s="9">
         <f t="shared" si="3"/>
-        <v>3.3395950740972655E-3</v>
+        <v>0</v>
       </c>
       <c r="K19" s="9"/>
       <c r="L19" s="9"/>
@@ -1757,39 +1727,39 @@
         <v>0</v>
       </c>
       <c r="N19" s="9">
-        <v>192</v>
+        <v>64</v>
       </c>
       <c r="O19" s="9">
         <v>1</v>
       </c>
       <c r="P19" s="9">
         <f t="shared" si="2"/>
-        <v>7.0102287269680212E-4</v>
+        <v>3.0182929241112313E-4</v>
       </c>
     </row>
     <row r="20" spans="2:16" x14ac:dyDescent="0.3">
       <c r="C20" s="43" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D20" s="9">
         <v>2</v>
       </c>
       <c r="E20" s="9">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="F20" s="9">
-        <f>E20*D20</f>
-        <v>66</v>
+        <f t="shared" si="0"/>
+        <v>48</v>
       </c>
       <c r="H20" s="9">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="I20" s="9">
         <v>2</v>
       </c>
       <c r="J20" s="9">
         <f t="shared" si="3"/>
-        <v>3.0612954845891604E-3</v>
+        <v>3.3395950740972655E-3</v>
       </c>
       <c r="K20" s="9"/>
       <c r="L20" s="9"/>
@@ -1798,236 +1768,239 @@
         <v>0</v>
       </c>
       <c r="N20" s="9">
-        <v>128</v>
+        <v>192</v>
       </c>
       <c r="O20" s="9">
         <v>1</v>
       </c>
       <c r="P20" s="9">
         <f t="shared" si="2"/>
+        <v>7.0102287269680212E-4</v>
+      </c>
+    </row>
+    <row r="21" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="C21" s="43" t="s">
+        <v>7</v>
+      </c>
+      <c r="D21" s="9">
+        <v>2</v>
+      </c>
+      <c r="E21" s="9">
+        <v>33</v>
+      </c>
+      <c r="F21" s="9">
+        <f>E21*D21</f>
+        <v>66</v>
+      </c>
+      <c r="H21" s="9">
+        <v>8</v>
+      </c>
+      <c r="I21" s="9">
+        <v>2</v>
+      </c>
+      <c r="J21" s="9">
+        <f t="shared" si="3"/>
+        <v>3.0612954845891604E-3</v>
+      </c>
+      <c r="K21" s="9"/>
+      <c r="L21" s="9"/>
+      <c r="M21" s="9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N21" s="9">
+        <v>128</v>
+      </c>
+      <c r="O21" s="9">
+        <v>1</v>
+      </c>
+      <c r="P21" s="9">
+        <f t="shared" si="2"/>
         <v>6.4260429997206863E-4</v>
       </c>
     </row>
-    <row r="21" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="E21" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="F21" s="9">
-        <f>SUM(F7:F20)</f>
+    <row r="22" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="E22" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="F22" s="9">
+        <f>SUM(F8:F21)</f>
         <v>6388</v>
       </c>
-      <c r="J21" s="14">
-        <f>SUM(J7:J20)</f>
+      <c r="J22" s="14">
+        <f>SUM(J8:J21)</f>
         <v>0.44358635404346108</v>
       </c>
-      <c r="M21" s="14">
-        <f>SUM(M7:M20)</f>
+      <c r="M22" s="14">
+        <f>SUM(M8:M21)</f>
         <v>0.71606484380435531</v>
       </c>
-      <c r="P21" s="9">
-        <f>SUM(P7:P20)</f>
+      <c r="P22" s="9">
+        <f>SUM(P8:P21)</f>
         <v>0.69328241181077488</v>
       </c>
     </row>
-    <row r="23" spans="2:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="24" spans="2:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H24" s="3" t="s">
+    <row r="24" spans="2:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="25" spans="2:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H25" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="I24" s="4" t="s">
+      <c r="I25" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="J24" s="5"/>
-      <c r="K24" s="3" t="s">
+      <c r="J25" s="5"/>
+      <c r="K25" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="L24" s="4" t="s">
+      <c r="L25" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="M24" s="5"/>
-      <c r="N24" s="3" t="s">
+      <c r="M25" s="5"/>
+      <c r="N25" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="O24" s="4">
+      <c r="O25" s="4">
         <v>132</v>
       </c>
-      <c r="P24" s="5"/>
-    </row>
-    <row r="25" spans="2:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B25" s="11" t="s">
+      <c r="P25" s="5"/>
+    </row>
+    <row r="26" spans="2:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B26" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="C25" s="43" t="s">
+      <c r="C26" s="43" t="s">
         <v>23</v>
       </c>
-      <c r="D25" s="9" t="s">
+      <c r="D26" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="E25" s="14" t="s">
+      <c r="E26" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="F26" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="F25" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="H25" s="6" t="s">
+      <c r="H26" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="I25" s="7" t="s">
+      <c r="I26" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="J25" s="8" t="s">
+      <c r="J26" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="K25" s="6" t="s">
+      <c r="K26" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="L25" s="7" t="s">
+      <c r="L26" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="M25" s="8"/>
-      <c r="N25" s="6" t="s">
+      <c r="M26" s="8"/>
+      <c r="N26" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="O25" s="7" t="s">
+      <c r="O26" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="P25" s="8"/>
-    </row>
-    <row r="26" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="C26" s="43" t="s">
-        <v>2</v>
-      </c>
-      <c r="D26" s="9">
+      <c r="P26" s="8"/>
+    </row>
+    <row r="27" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="C27" s="43" t="s">
+        <v>2</v>
+      </c>
+      <c r="D27" s="9">
         <v>16</v>
       </c>
-      <c r="E26" s="9">
+      <c r="E27" s="9">
         <f>(2056+1978+1736+1820+1802+1773+2010+2033+1913+1737+2011+1771+1804+1881+1977+1956)/16</f>
         <v>1891.125</v>
       </c>
-      <c r="F26" s="9">
-        <f>E26*D26</f>
+      <c r="F27" s="9">
+        <f>E27*D27</f>
         <v>30258</v>
       </c>
-      <c r="H26" s="10">
+      <c r="H27" s="10">
         <v>16</v>
       </c>
-      <c r="I26" s="10">
-        <v>2</v>
-      </c>
-      <c r="J26" s="10">
-        <f>I26*H26*E26/(33002*27)</f>
+      <c r="I27" s="10">
+        <v>2</v>
+      </c>
+      <c r="J27" s="10">
+        <f>I27*H27*E27/(33002*27)</f>
         <v>6.7915075853988649E-2</v>
       </c>
-      <c r="K26" s="10">
+      <c r="K27" s="10">
         <v>32</v>
       </c>
-      <c r="L26" s="10">
-        <v>2</v>
-      </c>
-      <c r="M26" s="10">
-        <f>L26*K26*E26/(33002*36)</f>
+      <c r="L27" s="10">
+        <v>2</v>
+      </c>
+      <c r="M27" s="10">
+        <f>L27*K27*E27/(33002*36)</f>
         <v>0.10187261378098297</v>
       </c>
-      <c r="N26" s="10">
+      <c r="N27" s="10">
         <v>128</v>
       </c>
-      <c r="O26" s="10">
+      <c r="O27" s="10">
         <v>16</v>
       </c>
-      <c r="P26" s="10">
-        <f>O26*N26*E26/(33002*132)</f>
+      <c r="P27" s="10">
+        <f>O27*N27*E27/(33002*132)</f>
         <v>0.88907008390676046</v>
-      </c>
-    </row>
-    <row r="27" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="C27" s="43" t="s">
-        <v>0</v>
-      </c>
-      <c r="D27" s="9">
-        <v>2</v>
-      </c>
-      <c r="E27" s="9">
-        <v>113</v>
-      </c>
-      <c r="F27" s="9">
-        <f t="shared" ref="F27:F39" si="4">E27*D27</f>
-        <v>226</v>
-      </c>
-      <c r="H27" s="9">
-        <v>12</v>
-      </c>
-      <c r="I27" s="9">
-        <v>2</v>
-      </c>
-      <c r="J27" s="10">
-        <f t="shared" ref="J27:J39" si="5">I27*H27*E27/(33002*27)</f>
-        <v>3.0435865839780756E-3</v>
-      </c>
-      <c r="K27" s="9"/>
-      <c r="L27" s="9"/>
-      <c r="M27" s="10">
-        <f t="shared" ref="M27:M39" si="6">L27*K27*E27/(33002*36)</f>
-        <v>0</v>
-      </c>
-      <c r="N27" s="9"/>
-      <c r="O27" s="9"/>
-      <c r="P27" s="10">
-        <f t="shared" ref="P27:P39" si="7">O27*N27*E27/(33002*132)</f>
-        <v>0</v>
       </c>
     </row>
     <row r="28" spans="2:16" x14ac:dyDescent="0.3">
       <c r="C28" s="43" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D28" s="9">
         <v>2</v>
       </c>
       <c r="E28" s="9">
-        <f>(95+101)/2</f>
-        <v>98</v>
+        <v>113</v>
       </c>
       <c r="F28" s="9">
-        <f t="shared" si="4"/>
-        <v>196</v>
+        <f t="shared" ref="F28:F40" si="4">E28*D28</f>
+        <v>226</v>
       </c>
       <c r="H28" s="9">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="I28" s="9">
         <v>2</v>
       </c>
       <c r="J28" s="10">
-        <f t="shared" si="5"/>
-        <v>8.7985688858363239E-4</v>
+        <f t="shared" ref="J28:J40" si="5">I28*H28*E28/(33002*27)</f>
+        <v>3.0435865839780756E-3</v>
       </c>
       <c r="K28" s="9"/>
       <c r="L28" s="9"/>
       <c r="M28" s="10">
-        <f t="shared" si="6"/>
+        <f t="shared" ref="M28:M40" si="6">L28*K28*E28/(33002*36)</f>
         <v>0</v>
       </c>
       <c r="N28" s="9"/>
       <c r="O28" s="9"/>
       <c r="P28" s="10">
-        <f t="shared" si="7"/>
+        <f t="shared" ref="P28:P40" si="7">O28*N28*E28/(33002*132)</f>
         <v>0</v>
       </c>
     </row>
     <row r="29" spans="2:16" x14ac:dyDescent="0.3">
       <c r="C29" s="43" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D29" s="9">
         <v>2</v>
       </c>
       <c r="E29" s="9">
-        <f>(116+122)/2</f>
-        <v>119</v>
+        <f>(95+101)/2</f>
+        <v>98</v>
       </c>
       <c r="F29" s="9">
         <f t="shared" si="4"/>
-        <v>238</v>
+        <v>196</v>
       </c>
       <c r="H29" s="9">
         <v>4</v>
@@ -2037,7 +2010,7 @@
       </c>
       <c r="J29" s="10">
         <f t="shared" si="5"/>
-        <v>1.0683976504229822E-3</v>
+        <v>8.7985688858363239E-4</v>
       </c>
       <c r="K29" s="9"/>
       <c r="L29" s="9"/>
@@ -2054,18 +2027,18 @@
     </row>
     <row r="30" spans="2:16" x14ac:dyDescent="0.3">
       <c r="C30" s="43" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D30" s="9">
         <v>2</v>
       </c>
       <c r="E30" s="9">
-        <f>(49+62)/2</f>
-        <v>55.5</v>
+        <f>(116+122)/2</f>
+        <v>119</v>
       </c>
       <c r="F30" s="9">
         <f t="shared" si="4"/>
-        <v>111</v>
+        <v>238</v>
       </c>
       <c r="H30" s="9">
         <v>4</v>
@@ -2075,7 +2048,7 @@
       </c>
       <c r="J30" s="10">
         <f t="shared" si="5"/>
-        <v>4.9828629914685303E-4</v>
+        <v>1.0683976504229822E-3</v>
       </c>
       <c r="K30" s="9"/>
       <c r="L30" s="9"/>
@@ -2091,18 +2064,29 @@
       </c>
     </row>
     <row r="31" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="C31" s="43"/>
-      <c r="D31" s="9"/>
-      <c r="E31" s="9"/>
+      <c r="C31" s="43" t="s">
+        <v>5</v>
+      </c>
+      <c r="D31" s="9">
+        <v>2</v>
+      </c>
+      <c r="E31" s="9">
+        <f>(49+62)/2</f>
+        <v>55.5</v>
+      </c>
       <c r="F31" s="9">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="H31" s="9"/>
-      <c r="I31" s="9"/>
+        <v>111</v>
+      </c>
+      <c r="H31" s="9">
+        <v>4</v>
+      </c>
+      <c r="I31" s="9">
+        <v>2</v>
+      </c>
       <c r="J31" s="10">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>4.9828629914685303E-4</v>
       </c>
       <c r="K31" s="9"/>
       <c r="L31" s="9"/>
@@ -2118,19 +2102,12 @@
       </c>
     </row>
     <row r="32" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="C32" s="43" t="s">
-        <v>8</v>
-      </c>
-      <c r="D32" s="9">
-        <v>2</v>
-      </c>
-      <c r="E32" s="9">
-        <f>(134+117)/2</f>
-        <v>125.5</v>
-      </c>
+      <c r="C32" s="43"/>
+      <c r="D32" s="9"/>
+      <c r="E32" s="9"/>
       <c r="F32" s="9">
         <f t="shared" si="4"/>
-        <v>251</v>
+        <v>0</v>
       </c>
       <c r="H32" s="9"/>
       <c r="I32" s="9"/>
@@ -2138,15 +2115,11 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="K32" s="9">
-        <v>32</v>
-      </c>
-      <c r="L32" s="9">
-        <v>2</v>
-      </c>
+      <c r="K32" s="9"/>
+      <c r="L32" s="9"/>
       <c r="M32" s="10">
         <f t="shared" si="6"/>
-        <v>6.7605330316681143E-3</v>
+        <v>0</v>
       </c>
       <c r="N32" s="9"/>
       <c r="O32" s="9"/>
@@ -2157,18 +2130,18 @@
     </row>
     <row r="33" spans="3:16" x14ac:dyDescent="0.3">
       <c r="C33" s="43" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D33" s="9">
         <v>2</v>
       </c>
       <c r="E33" s="9">
-        <f>(428+45)/2</f>
-        <v>236.5</v>
+        <f>(134+117)/2</f>
+        <v>125.5</v>
       </c>
       <c r="F33" s="9">
         <f t="shared" si="4"/>
-        <v>473</v>
+        <v>251</v>
       </c>
       <c r="H33" s="9"/>
       <c r="I33" s="9"/>
@@ -2184,7 +2157,7 @@
       </c>
       <c r="M33" s="10">
         <f t="shared" si="6"/>
-        <v>1.2739968621430351E-2</v>
+        <v>6.7605330316681143E-3</v>
       </c>
       <c r="N33" s="9"/>
       <c r="O33" s="9"/>
@@ -2195,17 +2168,18 @@
     </row>
     <row r="34" spans="3:16" x14ac:dyDescent="0.3">
       <c r="C34" s="43" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D34" s="9">
         <v>2</v>
       </c>
       <c r="E34" s="9">
-        <v>135</v>
+        <f>(428+45)/2</f>
+        <v>236.5</v>
       </c>
       <c r="F34" s="9">
         <f t="shared" si="4"/>
-        <v>270</v>
+        <v>473</v>
       </c>
       <c r="H34" s="9"/>
       <c r="I34" s="9"/>
@@ -2213,36 +2187,36 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="K34" s="9"/>
-      <c r="L34" s="9"/>
+      <c r="K34" s="9">
+        <v>32</v>
+      </c>
+      <c r="L34" s="9">
+        <v>2</v>
+      </c>
       <c r="M34" s="10">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="N34" s="9">
-        <v>96</v>
-      </c>
-      <c r="O34" s="9">
-        <v>2</v>
-      </c>
+        <v>1.2739968621430351E-2</v>
+      </c>
+      <c r="N34" s="9"/>
+      <c r="O34" s="9"/>
       <c r="P34" s="10">
         <f t="shared" si="7"/>
-        <v>5.9500526138911687E-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="3:16" x14ac:dyDescent="0.3">
       <c r="C35" s="43" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D35" s="9">
         <v>2</v>
       </c>
       <c r="E35" s="9">
-        <v>175</v>
+        <v>135</v>
       </c>
       <c r="F35" s="9">
         <f t="shared" si="4"/>
-        <v>350</v>
+        <v>270</v>
       </c>
       <c r="H35" s="9"/>
       <c r="I35" s="9"/>
@@ -2257,30 +2231,29 @@
         <v>0</v>
       </c>
       <c r="N35" s="9">
-        <v>32</v>
+        <v>96</v>
       </c>
       <c r="O35" s="9">
         <v>2</v>
       </c>
       <c r="P35" s="10">
         <f t="shared" si="7"/>
-        <v>2.5710103887184063E-3</v>
+        <v>5.9500526138911687E-3</v>
       </c>
     </row>
     <row r="36" spans="3:16" x14ac:dyDescent="0.3">
       <c r="C36" s="43" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D36" s="9">
         <v>2</v>
       </c>
       <c r="E36" s="9">
-        <f>(116+211)/2</f>
-        <v>163.5</v>
+        <v>175</v>
       </c>
       <c r="F36" s="9">
         <f t="shared" si="4"/>
-        <v>327</v>
+        <v>350</v>
       </c>
       <c r="H36" s="9"/>
       <c r="I36" s="9"/>
@@ -2302,23 +2275,23 @@
       </c>
       <c r="P36" s="10">
         <f t="shared" si="7"/>
-        <v>2.4020582774597682E-3</v>
+        <v>2.5710103887184063E-3</v>
       </c>
     </row>
     <row r="37" spans="3:16" x14ac:dyDescent="0.3">
       <c r="C37" s="43" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D37" s="9">
         <v>2</v>
       </c>
       <c r="E37" s="9">
-        <f>(96+88)/2</f>
-        <v>92</v>
+        <f>(116+211)/2</f>
+        <v>163.5</v>
       </c>
       <c r="F37" s="9">
         <f t="shared" si="4"/>
-        <v>184</v>
+        <v>327</v>
       </c>
       <c r="H37" s="9"/>
       <c r="I37" s="9"/>
@@ -2340,32 +2313,29 @@
       </c>
       <c r="P37" s="10">
         <f t="shared" si="7"/>
-        <v>1.3516168900691052E-3</v>
+        <v>2.4020582774597682E-3</v>
       </c>
     </row>
     <row r="38" spans="3:16" x14ac:dyDescent="0.3">
       <c r="C38" s="43" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="D38" s="9">
         <v>2</v>
       </c>
       <c r="E38" s="9">
-        <v>26</v>
+        <f>(96+88)/2</f>
+        <v>92</v>
       </c>
       <c r="F38" s="9">
         <f t="shared" si="4"/>
-        <v>52</v>
-      </c>
-      <c r="H38" s="9">
-        <v>12</v>
-      </c>
-      <c r="I38" s="9">
-        <v>2</v>
-      </c>
+        <v>184</v>
+      </c>
+      <c r="H38" s="9"/>
+      <c r="I38" s="9"/>
       <c r="J38" s="10">
         <f t="shared" si="5"/>
-        <v>7.0029425826044218E-4</v>
+        <v>0</v>
       </c>
       <c r="K38" s="9"/>
       <c r="L38" s="9"/>
@@ -2374,39 +2344,39 @@
         <v>0</v>
       </c>
       <c r="N38" s="9">
-        <v>96</v>
+        <v>32</v>
       </c>
       <c r="O38" s="9">
         <v>2</v>
       </c>
       <c r="P38" s="10">
         <f t="shared" si="7"/>
-        <v>1.1459360589716327E-3</v>
+        <v>1.3516168900691052E-3</v>
       </c>
     </row>
     <row r="39" spans="3:16" x14ac:dyDescent="0.3">
       <c r="C39" s="43" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D39" s="9">
         <v>2</v>
       </c>
       <c r="E39" s="9">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="F39" s="9">
         <f t="shared" si="4"/>
-        <v>66</v>
+        <v>52</v>
       </c>
       <c r="H39" s="9">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="I39" s="9">
         <v>2</v>
       </c>
       <c r="J39" s="10">
         <f t="shared" si="5"/>
-        <v>5.9255668006652799E-4</v>
+        <v>7.0029425826044218E-4</v>
       </c>
       <c r="K39" s="9"/>
       <c r="L39" s="9"/>
@@ -2415,34 +2385,75 @@
         <v>0</v>
       </c>
       <c r="N39" s="9">
-        <v>64</v>
+        <v>96</v>
       </c>
       <c r="O39" s="9">
         <v>2</v>
       </c>
       <c r="P39" s="10">
         <f t="shared" si="7"/>
+        <v>1.1459360589716327E-3</v>
+      </c>
+    </row>
+    <row r="40" spans="3:16" x14ac:dyDescent="0.3">
+      <c r="C40" s="43" t="s">
+        <v>7</v>
+      </c>
+      <c r="D40" s="9">
+        <v>2</v>
+      </c>
+      <c r="E40" s="9">
+        <v>33</v>
+      </c>
+      <c r="F40" s="9">
+        <f t="shared" si="4"/>
+        <v>66</v>
+      </c>
+      <c r="H40" s="9">
+        <v>8</v>
+      </c>
+      <c r="I40" s="9">
+        <v>2</v>
+      </c>
+      <c r="J40" s="10">
+        <f t="shared" si="5"/>
+        <v>5.9255668006652799E-4</v>
+      </c>
+      <c r="K40" s="9"/>
+      <c r="L40" s="9"/>
+      <c r="M40" s="10">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="N40" s="9">
+        <v>64</v>
+      </c>
+      <c r="O40" s="9">
+        <v>2</v>
+      </c>
+      <c r="P40" s="10">
+        <f t="shared" si="7"/>
         <v>9.696382037452276E-4</v>
       </c>
     </row>
-    <row r="40" spans="3:16" x14ac:dyDescent="0.3">
-      <c r="E40" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="F40" s="9">
-        <f>SUM(F26:F39)</f>
+    <row r="41" spans="3:16" x14ac:dyDescent="0.3">
+      <c r="E41" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="F41" s="9">
+        <f>SUM(F27:F40)</f>
         <v>33002</v>
       </c>
-      <c r="J40" s="14">
-        <f>SUM(J26:J39)</f>
+      <c r="J41" s="14">
+        <f>SUM(J27:J40)</f>
         <v>7.4698054214447154E-2</v>
       </c>
-      <c r="M40" s="14">
-        <f>SUM(M26:M39)</f>
+      <c r="M41" s="14">
+        <f>SUM(M27:M40)</f>
         <v>0.12137311543408144</v>
       </c>
-      <c r="P40" s="9">
-        <f>SUM(P26:P39)</f>
+      <c r="P41" s="9">
+        <f>SUM(P27:P40)</f>
         <v>0.90346039633961572</v>
       </c>
     </row>
@@ -2457,8 +2468,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:M30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2477,66 +2488,66 @@
       <c r="C3" s="23"/>
       <c r="J3" s="23"/>
       <c r="K3" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="L3" s="13" t="s">
         <v>46</v>
-      </c>
-      <c r="L3" s="13" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="23"/>
       <c r="J4" s="23" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K4" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="L4" s="23" t="s">
         <v>48</v>
       </c>
-      <c r="L4" s="23" t="s">
-        <v>49</v>
-      </c>
       <c r="M4" s="13" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="5" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="23"/>
       <c r="B5" s="23"/>
       <c r="C5" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="D5" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="E5" s="26" t="s">
+        <v>32</v>
+      </c>
+      <c r="F5" s="26" t="s">
+        <v>40</v>
+      </c>
+      <c r="G5" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="H5" s="28" t="s">
+        <v>33</v>
+      </c>
+      <c r="J5" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="D5" s="25" t="s">
-        <v>32</v>
-      </c>
-      <c r="E5" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="F5" s="26" t="s">
-        <v>41</v>
-      </c>
-      <c r="G5" s="27" t="s">
-        <v>42</v>
-      </c>
-      <c r="H5" s="28" t="s">
-        <v>34</v>
-      </c>
-      <c r="J5" s="23" t="s">
-        <v>36</v>
-      </c>
       <c r="K5" s="23" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="L5" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="M5" s="13" t="s">
         <v>50</v>
-      </c>
-      <c r="M5" s="13" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" s="23"/>
       <c r="B6" s="23"/>
       <c r="C6" s="30" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D6" s="1">
         <v>12872</v>
@@ -2558,7 +2569,7 @@
       <c r="A7" s="23"/>
       <c r="B7" s="23"/>
       <c r="C7" s="31" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D7" s="12">
         <v>8529</v>
@@ -2580,7 +2591,7 @@
       <c r="A8" s="23"/>
       <c r="B8" s="23"/>
       <c r="C8" s="31" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D8" s="12">
         <v>368</v>
@@ -2601,7 +2612,7 @@
     <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9" s="23"/>
       <c r="C9" s="31" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D9" s="29">
         <v>397</v>
@@ -2622,7 +2633,7 @@
     <row r="10" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="23"/>
       <c r="C10" s="32" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D10" s="38">
         <v>239</v>
@@ -2643,7 +2654,7 @@
     <row r="11" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="23"/>
       <c r="C11" s="33" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D11" s="25">
         <f>SUM(D6:D10)</f>
@@ -2669,7 +2680,7 @@
     <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12" s="23"/>
       <c r="C12" s="9" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D12" s="9">
         <v>10.249313815187557</v>
@@ -2699,29 +2710,29 @@
       <c r="A16" s="23"/>
       <c r="B16" s="23"/>
       <c r="C16" s="11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D16" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="E16" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="E16" s="26" t="s">
+      <c r="F16" s="26" t="s">
+        <v>40</v>
+      </c>
+      <c r="G16" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="H16" s="28" t="s">
         <v>33</v>
-      </c>
-      <c r="F16" s="26" t="s">
-        <v>41</v>
-      </c>
-      <c r="G16" s="27" t="s">
-        <v>42</v>
-      </c>
-      <c r="H16" s="28" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="23"/>
       <c r="B17" s="23"/>
       <c r="C17" s="36" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D17" s="37">
         <v>12870</v>
@@ -2743,7 +2754,7 @@
       <c r="A18" s="23"/>
       <c r="B18" s="23"/>
       <c r="C18" s="31" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D18" s="29">
         <v>33494</v>
@@ -2765,7 +2776,7 @@
       <c r="A19" s="23"/>
       <c r="B19" s="23"/>
       <c r="C19" s="31" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D19" s="12">
         <v>512</v>
@@ -2787,7 +2798,7 @@
       <c r="A20" s="23"/>
       <c r="B20" s="23"/>
       <c r="C20" s="31" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D20" s="29">
         <v>398</v>
@@ -2809,7 +2820,7 @@
       <c r="A21" s="23"/>
       <c r="B21" s="23"/>
       <c r="C21" s="32" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D21" s="38">
         <v>2964</v>
@@ -2831,7 +2842,7 @@
       <c r="A22" s="23"/>
       <c r="B22" s="23"/>
       <c r="C22" s="35" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D22" s="25">
         <f>SUM(D17:D21)</f>
@@ -2858,7 +2869,7 @@
       <c r="A23" s="23"/>
       <c r="B23" s="23"/>
       <c r="C23" s="9" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D23" s="9">
         <v>22.981701738334859</v>
@@ -2904,22 +2915,22 @@
     <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C29" s="9"/>
       <c r="D29" s="9" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="E29" s="9" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="F29" s="9" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="G29" s="9"/>
       <c r="H29" s="9" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C30" s="9" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="D30" s="9">
         <v>218600</v>

--- a/lstm_utilization_ratio.xlsx
+++ b/lstm_utilization_ratio.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="68">
   <si>
     <t>S_BQS</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -203,34 +203,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Total</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SystemCall Detection</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Branch Detection</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>(IGN) + top + embedding + (27+36) + Sofmax</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(IGN) + top + embedding + (1029) + Sofmax</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(IGN) + top + embedding + (132) + Sofmax</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(Cycles)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Utilization Percentage</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -259,15 +235,67 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Average Utilization (If full 30 branches are ran per single syscall)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Average Area (LUT)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Average Area (LUT)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sys Detection</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Average Case</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Shortest Case</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ideal Case</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Average Utilization</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Detection Time</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Total Util. Ratio</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Single ML MIAOW</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BRAMs</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BRAMs</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>INPDT2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>INPDT16</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RTAD Single CU</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Weighted Average</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -742,7 +770,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -875,6 +903,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -890,6 +921,3278 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ko-KR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ko-KR"/>
+              <a:t>Expected Detection Time</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ko-KR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Utilization Ratio'!$H$7:$H$9</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>INPDT 2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>INPDT 16</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>RTAD Single CU</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Utilization Ratio'!$I$7:$I$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1569.6451612903224</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>701.58064516129036</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2500</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-FE14-463B-BCC7-5F2B13D091E1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="956035935"/>
+        <c:axId val="956036767"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="956035935"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ko-KR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="956036767"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="956036767"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ko-KR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="956035935"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ko-KR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ko-KR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ko-KR"/>
+              <a:t>Utilization Ratio (On</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ko-KR" baseline="0"/>
+              <a:t> Operation)</a:t>
+            </a:r>
+            <a:endParaRPr lang="ko-KR" altLang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ko-KR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Utilization Ratio'!$C$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>INPDT 2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Utilization Ratio'!$D$2:$F$2</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>SYSCALL</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>CONTEXT CONVERT</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>BRANCH</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Utilization Ratio'!$D$3:$F$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>44.35863540434611</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>71.606484380435532</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>69.328241181077487</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-E0E5-4243-B791-F4B5046BC808}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Utilization Ratio'!$C$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>INPDT 16</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Utilization Ratio'!$D$2:$F$2</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>SYSCALL</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>CONTEXT CONVERT</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>BRANCH</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Utilization Ratio'!$D$4:$F$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>7.4698054214447156</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>12.137311543408144</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>90.346039633961567</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-E0E5-4243-B791-F4B5046BC808}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="956043423"/>
+        <c:axId val="956031359"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="956043423"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ko-KR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="956031359"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="956031359"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ko-KR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="956043423"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ko-KR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ko-KR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ko-KR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ko-KR"/>
+              <a:t>Utilization Ratio</a:t>
+            </a:r>
+            <a:endParaRPr lang="ko-KR" altLang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ko-KR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Utilization Ratio'!$I$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>INPDT 2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Utilization Ratio'!$J$2:$L$2</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Ideal Case</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Average Case</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Shortest Case</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Utilization Ratio'!$J$3:$L$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>69.31085830666278</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.8860735924747534</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>97.101122282608685</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-EA77-4E06-8898-20504EA43506}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Utilization Ratio'!$I$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>INPDT 16</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Utilization Ratio'!$J$2:$L$2</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Ideal Case</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Average Case</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Shortest Case</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Utilization Ratio'!$J$4:$L$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>89.084049217002232</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.6527169733019778</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>16.233004076086953</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-EA77-4E06-8898-20504EA43506}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="956029279"/>
+        <c:axId val="956032607"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="956029279"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ko-KR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="956032607"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="956032607"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ko-KR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="956029279"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ko-KR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ko-KR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ko-KR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ko-KR"/>
+              <a:t>Area</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Area!$C$11</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>INPDT2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Area!$D$5:$F$5</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>LUTs</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>FFs</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>BRAMs</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Area!$D$11:$F$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>22405</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4430</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>106</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-6E90-4AE9-AC77-BFE6B80C05BA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Area!$C$22</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>INPDT16</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4">
+                <a:lumMod val="60000"/>
+                <a:lumOff val="40000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Area!$D$16:$F$16</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>LUTs</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>FFs</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>BRAMs</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Area!$D$22:$F$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>50238</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4585</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>137</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-6E90-4AE9-AC77-BFE6B80C05BA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Area!$C$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>RTAD Single CU</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Area!$D$1:$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>LUTs</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>FFs</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>BRAMs</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Area!$D$3:$F$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>52434</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>19853</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>38</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-6E90-4AE9-AC77-BFE6B80C05BA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="1099770159"/>
+        <c:axId val="1099763087"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1099770159"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ko-KR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1099763087"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1099763087"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ko-KR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1099770159"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:dTable>
+        <c:showHorzBorder val="1"/>
+        <c:showVertBorder val="1"/>
+        <c:showOutline val="1"/>
+        <c:showKeys val="1"/>
+      </c:dTable>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ko-KR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>195262</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>157162</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>481012</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>176212</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="차트 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>747712</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>176212</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>519112</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>195262</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="차트 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>71437</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>138112</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1042987</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>90487</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="차트 3"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>628650</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>157162</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>819150</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>138112</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="차트 5"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1155,10 +4458,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:P41"/>
+  <dimension ref="B1:P47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F27" sqref="F27"/>
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1166,10 +4469,19 @@
     <col min="3" max="14" width="15.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="1" spans="2:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="K1">
+        <f>7229*30</f>
+        <v>216870</v>
+      </c>
+      <c r="L1">
+        <f>736*30</f>
+        <v>22080</v>
+      </c>
+    </row>
     <row r="2" spans="2:16" x14ac:dyDescent="0.3">
       <c r="C2" s="15" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="D2" s="16" t="s">
         <v>28</v>
@@ -1182,6 +4494,18 @@
       </c>
       <c r="G2" s="13" t="s">
         <v>58</v>
+      </c>
+      <c r="I2" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="J2" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="K2" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="L2" s="17" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="3" spans="2:16" x14ac:dyDescent="0.3">
@@ -1189,20 +4513,31 @@
         <v>18</v>
       </c>
       <c r="D3" s="9">
-        <f>100*J22</f>
+        <f>100*J28</f>
         <v>44.35863540434611</v>
       </c>
       <c r="E3" s="9">
-        <f>100*M22</f>
+        <f>100*M28</f>
         <v>71.606484380435532</v>
       </c>
       <c r="F3" s="19">
-        <f>100*P22</f>
+        <f>100*P28</f>
         <v>69.328241181077487</v>
       </c>
-      <c r="G3">
+      <c r="I3" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="J3" s="9">
         <f>(44.36*27+71.61*36+69.33*1029*30)/(27+36+1029*30)</f>
         <v>69.31085830666278</v>
+      </c>
+      <c r="K3" s="9">
+        <f>(44.36*27+71.61*36+69.33*1029*30)/K1</f>
+        <v>9.8860735924747534</v>
+      </c>
+      <c r="L3" s="19">
+        <f>(44.36*27+71.61*36+69.33*1029*30)/L1</f>
+        <v>97.101122282608685</v>
       </c>
     </row>
     <row r="4" spans="2:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -1210,404 +4545,278 @@
         <v>25</v>
       </c>
       <c r="D4" s="21">
-        <f>100*J41</f>
+        <f>100*J47</f>
         <v>7.4698054214447156</v>
       </c>
       <c r="E4" s="21">
-        <f>100*M41</f>
+        <f>100*M47</f>
         <v>12.137311543408144</v>
       </c>
       <c r="F4" s="22">
-        <f>100*P41</f>
+        <f>100*P47</f>
         <v>90.346039633961567</v>
       </c>
-      <c r="G4">
+      <c r="I4" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="J4" s="21">
         <f>(27*7.47 + 12.14*36 + 132*30*90.34)/(27+36+132*30)</f>
         <v>89.084049217002232</v>
       </c>
-    </row>
-    <row r="5" spans="2:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="6" spans="2:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H6" s="3" t="s">
+      <c r="K4" s="21">
+        <f>(7.47*27+12.14*36+90.35*132*30)/K1</f>
+        <v>1.6527169733019778</v>
+      </c>
+      <c r="L4" s="22">
+        <f>(7.47*27+12.14*36+90.35*132*30)/L1</f>
+        <v>16.233004076086953</v>
+      </c>
+    </row>
+    <row r="6" spans="2:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="7" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="C7" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D7" s="44" t="s">
+        <v>54</v>
+      </c>
+      <c r="E7" s="44" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" s="17" t="s">
+        <v>67</v>
+      </c>
+      <c r="H7" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="I7">
+        <v>1569.6451612903224</v>
+      </c>
+    </row>
+    <row r="8" spans="2:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C8" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="D8" s="9">
+        <f>283 + 2 + 1 + (27+36) + 10</f>
+        <v>359</v>
+      </c>
+      <c r="E8" s="9">
+        <f xml:space="preserve"> 512 + 2 + 1 + (1029) + 66</f>
+        <v>1610</v>
+      </c>
+      <c r="F8" s="41">
+        <f>359/31 + 1610*30/31</f>
+        <v>1569.6451612903224</v>
+      </c>
+      <c r="H8" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="I8">
+        <v>701.58064516129036</v>
+      </c>
+    </row>
+    <row r="9" spans="2:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C9" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="D9" s="21">
+        <f>283 + 2 + 1 + (27+36) + 10</f>
+        <v>359</v>
+      </c>
+      <c r="E9" s="21">
+        <f xml:space="preserve"> 512 + 2 + 1 + (132) + 66</f>
+        <v>713</v>
+      </c>
+      <c r="F9" s="41">
+        <f>359/31 + E9*30/31</f>
+        <v>701.58064516129036</v>
+      </c>
+      <c r="H9" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="I9">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="10" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="C10" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="F10">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="11" spans="2:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="12" spans="2:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H12" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="I6" s="4" t="s">
+      <c r="I12" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="J6" s="5"/>
-      <c r="K6" s="3" t="s">
+      <c r="J12" s="5"/>
+      <c r="K12" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="L6" s="4" t="s">
+      <c r="L12" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="M6" s="5"/>
-      <c r="N6" s="3" t="s">
+      <c r="M12" s="5"/>
+      <c r="N12" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="O6" s="4" t="s">
+      <c r="O12" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="P6" s="5"/>
-    </row>
-    <row r="7" spans="2:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="2" t="s">
+      <c r="P12" s="5"/>
+    </row>
+    <row r="13" spans="2:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B13" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="43" t="s">
+      <c r="C13" s="43" t="s">
         <v>23</v>
       </c>
-      <c r="D7" s="9" t="s">
+      <c r="D13" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="E7" s="14" t="s">
-        <v>59</v>
-      </c>
-      <c r="F7" s="14" t="s">
+      <c r="E13" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="F13" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="H7" s="6" t="s">
+      <c r="H13" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="I7" s="7" t="s">
+      <c r="I13" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="J7" s="8"/>
-      <c r="K7" s="6" t="s">
+      <c r="J13" s="8"/>
+      <c r="K13" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="L7" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="M7" s="8"/>
-      <c r="N7" s="6" t="s">
+      <c r="M13" s="8"/>
+      <c r="N13" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="O7" s="7" t="s">
+      <c r="O13" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="P7" s="8"/>
-    </row>
-    <row r="8" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="C8" s="43" t="s">
+      <c r="P13" s="8"/>
+    </row>
+    <row r="14" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="C14" s="43" t="s">
         <v>2</v>
       </c>
-      <c r="D8" s="9">
+      <c r="D14" s="9">
         <v>2</v>
       </c>
-      <c r="E8" s="9">
+      <c r="E14" s="9">
         <f>(2129+2280)/2</f>
         <v>2204.5</v>
       </c>
-      <c r="F8" s="9">
-        <f>E8*D8</f>
+      <c r="F14" s="9">
+        <f>E14*D14</f>
         <v>4409</v>
       </c>
-      <c r="H8" s="10">
+      <c r="H14" s="10">
         <v>16</v>
       </c>
-      <c r="I8" s="10">
+      <c r="I14" s="10">
         <v>2</v>
       </c>
-      <c r="J8" s="10">
-        <f>I8*H8*E8/(6388*27)</f>
+      <c r="J14" s="10">
+        <f>I14*H14*E14/(6388*27)</f>
         <v>0.40900763004707902</v>
       </c>
-      <c r="K8" s="10">
+      <c r="K14" s="10">
         <v>32</v>
       </c>
-      <c r="L8" s="10">
+      <c r="L14" s="10">
         <v>2</v>
       </c>
-      <c r="M8" s="10">
-        <f>L8*K8*E8/(6388*36)</f>
+      <c r="M14" s="10">
+        <f>L14*K14*E14/(6388*36)</f>
         <v>0.6135114450706185</v>
       </c>
-      <c r="N8" s="10">
+      <c r="N14" s="10">
         <v>1024</v>
       </c>
-      <c r="O8" s="10">
+      <c r="O14" s="10">
         <v>2</v>
       </c>
-      <c r="P8" s="10">
-        <f>O8*N8*E8/(6388*1029)</f>
+      <c r="P14" s="10">
+        <f>O14*N14*E14/(6388*1029)</f>
         <v>0.68684663238226684</v>
       </c>
     </row>
-    <row r="9" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="C9" s="43" t="s">
-        <v>0</v>
-      </c>
-      <c r="D9" s="9">
+    <row r="15" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="C15" s="43" t="s">
+        <v>0</v>
+      </c>
+      <c r="D15" s="9">
         <v>2</v>
       </c>
-      <c r="E9" s="9">
+      <c r="E15" s="9">
         <f>(106+104)/2</f>
         <v>105</v>
       </c>
-      <c r="F9" s="9">
-        <f t="shared" ref="F9:F20" si="0">E9*D9</f>
+      <c r="F15" s="9">
+        <f t="shared" ref="F15:F26" si="0">E15*D15</f>
         <v>210</v>
       </c>
-      <c r="H9" s="9">
+      <c r="H15" s="9">
         <v>12</v>
       </c>
-      <c r="I9" s="9">
+      <c r="I15" s="9">
         <v>2</v>
       </c>
-      <c r="J9" s="9">
-        <f>I9*H9*E9/(6388*27)</f>
+      <c r="J15" s="9">
+        <f>I15*H15*E15/(6388*27)</f>
         <v>1.4610728449175537E-2</v>
       </c>
-      <c r="K9" s="9"/>
-      <c r="L9" s="9"/>
-      <c r="M9" s="9">
-        <f t="shared" ref="M9:M21" si="1">L9*K9*E9/(6388*36)</f>
-        <v>0</v>
-      </c>
-      <c r="N9" s="9"/>
-      <c r="O9" s="9"/>
-      <c r="P9" s="9">
-        <f t="shared" ref="P9:P21" si="2">O9*N9*E9/(6388*1029)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="C10" s="43" t="s">
-        <v>1</v>
-      </c>
-      <c r="D10" s="9">
-        <v>2</v>
-      </c>
-      <c r="E10" s="9">
-        <f>(120+116)/2</f>
-        <v>118</v>
-      </c>
-      <c r="F10" s="9">
-        <f t="shared" si="0"/>
-        <v>236</v>
-      </c>
-      <c r="H10" s="9">
-        <v>4</v>
-      </c>
-      <c r="I10" s="9">
-        <v>2</v>
-      </c>
-      <c r="J10" s="9">
-        <f t="shared" ref="J10:J21" si="3">I10*H10*E10/(6388*27)</f>
-        <v>5.473225260326074E-3</v>
-      </c>
-      <c r="K10" s="9"/>
-      <c r="L10" s="9"/>
-      <c r="M10" s="9">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="N10" s="9"/>
-      <c r="O10" s="9"/>
-      <c r="P10" s="9">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="C11" s="43" t="s">
-        <v>4</v>
-      </c>
-      <c r="D11" s="9">
-        <v>2</v>
-      </c>
-      <c r="E11" s="9">
-        <f>(110+136)/2</f>
-        <v>123</v>
-      </c>
-      <c r="F11" s="9">
-        <f t="shared" si="0"/>
-        <v>246</v>
-      </c>
-      <c r="H11" s="9">
-        <v>4</v>
-      </c>
-      <c r="I11" s="9">
-        <v>2</v>
-      </c>
-      <c r="J11" s="9">
-        <f t="shared" si="3"/>
-        <v>5.7051415849161619E-3</v>
-      </c>
-      <c r="K11" s="9"/>
-      <c r="L11" s="9"/>
-      <c r="M11" s="9">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="N11" s="9"/>
-      <c r="O11" s="9"/>
-      <c r="P11" s="9">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="C12" s="43" t="s">
-        <v>5</v>
-      </c>
-      <c r="D12" s="9">
-        <v>2</v>
-      </c>
-      <c r="E12" s="9">
-        <f>(50+53)/2</f>
-        <v>51.5</v>
-      </c>
-      <c r="F12" s="9">
-        <f t="shared" si="0"/>
-        <v>103</v>
-      </c>
-      <c r="H12" s="9">
-        <v>4</v>
-      </c>
-      <c r="I12" s="9">
-        <v>2</v>
-      </c>
-      <c r="J12" s="9">
-        <f t="shared" si="3"/>
-        <v>2.3887381432779052E-3</v>
-      </c>
-      <c r="K12" s="9"/>
-      <c r="L12" s="9"/>
-      <c r="M12" s="9">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="N12" s="9"/>
-      <c r="O12" s="9"/>
-      <c r="P12" s="9">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="C13" s="43"/>
-      <c r="D13" s="9"/>
-      <c r="E13" s="9"/>
-      <c r="F13" s="9">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H13" s="9"/>
-      <c r="I13" s="9"/>
-      <c r="J13" s="9">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="K13" s="9"/>
-      <c r="L13" s="9"/>
-      <c r="M13" s="9">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="N13" s="9"/>
-      <c r="O13" s="9"/>
-      <c r="P13" s="9">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="C14" s="43" t="s">
-        <v>8</v>
-      </c>
-      <c r="D14" s="9">
-        <v>2</v>
-      </c>
-      <c r="E14" s="9">
-        <f>(300+4)/2</f>
-        <v>152</v>
-      </c>
-      <c r="F14" s="9">
-        <f t="shared" si="0"/>
-        <v>304</v>
-      </c>
-      <c r="H14" s="9"/>
-      <c r="I14" s="9"/>
-      <c r="J14" s="9">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="K14" s="9">
-        <v>32</v>
-      </c>
-      <c r="L14" s="9">
-        <v>2</v>
-      </c>
-      <c r="M14" s="9">
-        <f t="shared" si="1"/>
-        <v>4.2301537605232031E-2</v>
-      </c>
-      <c r="N14" s="9"/>
-      <c r="O14" s="9"/>
-      <c r="P14" s="9">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="C15" s="43" t="s">
-        <v>9</v>
-      </c>
-      <c r="D15" s="9">
-        <v>2</v>
-      </c>
-      <c r="E15" s="9">
-        <f>(428+5)/2</f>
-        <v>216.5</v>
-      </c>
-      <c r="F15" s="9">
-        <f t="shared" si="0"/>
-        <v>433</v>
-      </c>
-      <c r="H15" s="9"/>
-      <c r="I15" s="9"/>
-      <c r="J15" s="9">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="K15" s="9">
-        <v>32</v>
-      </c>
-      <c r="L15" s="9">
-        <v>2</v>
-      </c>
+      <c r="K15" s="9"/>
+      <c r="L15" s="9"/>
       <c r="M15" s="9">
-        <f t="shared" si="1"/>
-        <v>6.0251861128504836E-2</v>
+        <f t="shared" ref="M15:M27" si="1">L15*K15*E15/(6388*36)</f>
+        <v>0</v>
       </c>
       <c r="N15" s="9"/>
       <c r="O15" s="9"/>
       <c r="P15" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="P15:P27" si="2">O15*N15*E15/(6388*1029)</f>
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="2:16" x14ac:dyDescent="0.3">
       <c r="C16" s="43" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="D16" s="9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E16" s="9">
-        <v>95</v>
+        <f>(120+116)/2</f>
+        <v>118</v>
       </c>
       <c r="F16" s="9">
         <f t="shared" si="0"/>
-        <v>95</v>
-      </c>
-      <c r="H16" s="9"/>
-      <c r="I16" s="9"/>
+        <v>236</v>
+      </c>
+      <c r="H16" s="9">
+        <v>4</v>
+      </c>
+      <c r="I16" s="9">
+        <v>2</v>
+      </c>
       <c r="J16" s="9">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f t="shared" ref="J16:J27" si="3">I16*H16*E16/(6388*27)</f>
+        <v>5.473225260326074E-3</v>
       </c>
       <c r="K16" s="9"/>
       <c r="L16" s="9"/>
@@ -1615,36 +4824,37 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="N16" s="9">
-        <v>192</v>
-      </c>
-      <c r="O16" s="9">
-        <v>1</v>
-      </c>
+      <c r="N16" s="9"/>
+      <c r="O16" s="9"/>
       <c r="P16" s="9">
         <f t="shared" si="2"/>
-        <v>2.7748822044248419E-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="2:16" x14ac:dyDescent="0.3">
       <c r="C17" s="43" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="D17" s="9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E17" s="9">
-        <v>87</v>
+        <f>(110+136)/2</f>
+        <v>123</v>
       </c>
       <c r="F17" s="9">
         <f t="shared" si="0"/>
-        <v>87</v>
-      </c>
-      <c r="H17" s="9"/>
-      <c r="I17" s="9"/>
+        <v>246</v>
+      </c>
+      <c r="H17" s="9">
+        <v>4</v>
+      </c>
+      <c r="I17" s="9">
+        <v>2</v>
+      </c>
       <c r="J17" s="9">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>5.7051415849161619E-3</v>
       </c>
       <c r="K17" s="9"/>
       <c r="L17" s="9"/>
@@ -1652,36 +4862,37 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="N17" s="9">
-        <v>64</v>
-      </c>
-      <c r="O17" s="9">
-        <v>1</v>
-      </c>
+      <c r="N17" s="9"/>
+      <c r="O17" s="9"/>
       <c r="P17" s="9">
         <f t="shared" si="2"/>
-        <v>8.4706930450863596E-4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="2:16" x14ac:dyDescent="0.3">
       <c r="C18" s="43" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="D18" s="9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E18" s="9">
-        <v>120</v>
+        <f>(50+53)/2</f>
+        <v>51.5</v>
       </c>
       <c r="F18" s="9">
         <f t="shared" si="0"/>
-        <v>120</v>
-      </c>
-      <c r="H18" s="9"/>
-      <c r="I18" s="9"/>
+        <v>103</v>
+      </c>
+      <c r="H18" s="9">
+        <v>4</v>
+      </c>
+      <c r="I18" s="9">
+        <v>2</v>
+      </c>
       <c r="J18" s="9">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>2.3887381432779052E-3</v>
       </c>
       <c r="K18" s="9"/>
       <c r="L18" s="9"/>
@@ -1689,30 +4900,20 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="N18" s="9">
-        <v>64</v>
-      </c>
-      <c r="O18" s="9">
-        <v>1</v>
-      </c>
+      <c r="N18" s="9"/>
+      <c r="O18" s="9"/>
       <c r="P18" s="9">
         <f t="shared" si="2"/>
-        <v>1.1683714544946703E-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="C19" s="43" t="s">
-        <v>13</v>
-      </c>
-      <c r="D19" s="9">
-        <v>1</v>
-      </c>
-      <c r="E19" s="9">
-        <v>31</v>
-      </c>
+      <c r="C19" s="43"/>
+      <c r="D19" s="9"/>
+      <c r="E19" s="9"/>
       <c r="F19" s="9">
         <f t="shared" si="0"/>
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="H19" s="9"/>
       <c r="I19" s="9"/>
@@ -1726,503 +4927,511 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="N19" s="9">
-        <v>64</v>
-      </c>
-      <c r="O19" s="9">
-        <v>1</v>
-      </c>
+      <c r="N19" s="9"/>
+      <c r="O19" s="9"/>
       <c r="P19" s="9">
         <f t="shared" si="2"/>
-        <v>3.0182929241112313E-4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="2:16" x14ac:dyDescent="0.3">
       <c r="C20" s="43" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D20" s="9">
         <v>2</v>
       </c>
       <c r="E20" s="9">
-        <v>24</v>
+        <f>(300+4)/2</f>
+        <v>152</v>
       </c>
       <c r="F20" s="9">
         <f t="shared" si="0"/>
-        <v>48</v>
-      </c>
-      <c r="H20" s="9">
-        <v>12</v>
-      </c>
-      <c r="I20" s="9">
-        <v>2</v>
-      </c>
+        <v>304</v>
+      </c>
+      <c r="H20" s="9"/>
+      <c r="I20" s="9"/>
       <c r="J20" s="9">
         <f t="shared" si="3"/>
-        <v>3.3395950740972655E-3</v>
-      </c>
-      <c r="K20" s="9"/>
-      <c r="L20" s="9"/>
+        <v>0</v>
+      </c>
+      <c r="K20" s="9">
+        <v>32</v>
+      </c>
+      <c r="L20" s="9">
+        <v>2</v>
+      </c>
       <c r="M20" s="9">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="N20" s="9">
-        <v>192</v>
-      </c>
-      <c r="O20" s="9">
-        <v>1</v>
-      </c>
+        <v>4.2301537605232031E-2</v>
+      </c>
+      <c r="N20" s="9"/>
+      <c r="O20" s="9"/>
       <c r="P20" s="9">
         <f t="shared" si="2"/>
-        <v>7.0102287269680212E-4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="2:16" x14ac:dyDescent="0.3">
       <c r="C21" s="43" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D21" s="9">
         <v>2</v>
       </c>
       <c r="E21" s="9">
-        <v>33</v>
+        <f>(428+5)/2</f>
+        <v>216.5</v>
       </c>
       <c r="F21" s="9">
-        <f>E21*D21</f>
-        <v>66</v>
-      </c>
-      <c r="H21" s="9">
-        <v>8</v>
-      </c>
-      <c r="I21" s="9">
-        <v>2</v>
-      </c>
+        <f t="shared" si="0"/>
+        <v>433</v>
+      </c>
+      <c r="H21" s="9"/>
+      <c r="I21" s="9"/>
       <c r="J21" s="9">
         <f t="shared" si="3"/>
-        <v>3.0612954845891604E-3</v>
-      </c>
-      <c r="K21" s="9"/>
-      <c r="L21" s="9"/>
+        <v>0</v>
+      </c>
+      <c r="K21" s="9">
+        <v>32</v>
+      </c>
+      <c r="L21" s="9">
+        <v>2</v>
+      </c>
       <c r="M21" s="9">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="N21" s="9">
-        <v>128</v>
-      </c>
-      <c r="O21" s="9">
-        <v>1</v>
-      </c>
+        <v>6.0251861128504836E-2</v>
+      </c>
+      <c r="N21" s="9"/>
+      <c r="O21" s="9"/>
       <c r="P21" s="9">
         <f t="shared" si="2"/>
-        <v>6.4260429997206863E-4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="E22" s="9" t="s">
-        <v>27</v>
+      <c r="C22" s="43" t="s">
+        <v>10</v>
+      </c>
+      <c r="D22" s="9">
+        <v>1</v>
+      </c>
+      <c r="E22" s="9">
+        <v>95</v>
       </c>
       <c r="F22" s="9">
-        <f>SUM(F8:F21)</f>
-        <v>6388</v>
-      </c>
-      <c r="J22" s="14">
-        <f>SUM(J8:J21)</f>
-        <v>0.44358635404346108</v>
-      </c>
-      <c r="M22" s="14">
-        <f>SUM(M8:M21)</f>
-        <v>0.71606484380435531</v>
+        <f t="shared" si="0"/>
+        <v>95</v>
+      </c>
+      <c r="H22" s="9"/>
+      <c r="I22" s="9"/>
+      <c r="J22" s="9">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K22" s="9"/>
+      <c r="L22" s="9"/>
+      <c r="M22" s="9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N22" s="9">
+        <v>192</v>
+      </c>
+      <c r="O22" s="9">
+        <v>1</v>
       </c>
       <c r="P22" s="9">
-        <f>SUM(P8:P21)</f>
-        <v>0.69328241181077488</v>
-      </c>
-    </row>
-    <row r="24" spans="2:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="25" spans="2:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H25" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="I25" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="J25" s="5"/>
-      <c r="K25" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="L25" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="M25" s="5"/>
-      <c r="N25" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="O25" s="4">
-        <v>132</v>
-      </c>
-      <c r="P25" s="5"/>
-    </row>
-    <row r="26" spans="2:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B26" s="11" t="s">
-        <v>18</v>
-      </c>
+        <f t="shared" si="2"/>
+        <v>2.7748822044248419E-3</v>
+      </c>
+    </row>
+    <row r="23" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="C23" s="43" t="s">
+        <v>11</v>
+      </c>
+      <c r="D23" s="9">
+        <v>1</v>
+      </c>
+      <c r="E23" s="9">
+        <v>87</v>
+      </c>
+      <c r="F23" s="9">
+        <f t="shared" si="0"/>
+        <v>87</v>
+      </c>
+      <c r="H23" s="9"/>
+      <c r="I23" s="9"/>
+      <c r="J23" s="9">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K23" s="9"/>
+      <c r="L23" s="9"/>
+      <c r="M23" s="9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N23" s="9">
+        <v>64</v>
+      </c>
+      <c r="O23" s="9">
+        <v>1</v>
+      </c>
+      <c r="P23" s="9">
+        <f t="shared" si="2"/>
+        <v>8.4706930450863596E-4</v>
+      </c>
+    </row>
+    <row r="24" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="C24" s="43" t="s">
+        <v>12</v>
+      </c>
+      <c r="D24" s="9">
+        <v>1</v>
+      </c>
+      <c r="E24" s="9">
+        <v>120</v>
+      </c>
+      <c r="F24" s="9">
+        <f t="shared" si="0"/>
+        <v>120</v>
+      </c>
+      <c r="H24" s="9"/>
+      <c r="I24" s="9"/>
+      <c r="J24" s="9">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K24" s="9"/>
+      <c r="L24" s="9"/>
+      <c r="M24" s="9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N24" s="9">
+        <v>64</v>
+      </c>
+      <c r="O24" s="9">
+        <v>1</v>
+      </c>
+      <c r="P24" s="9">
+        <f t="shared" si="2"/>
+        <v>1.1683714544946703E-3</v>
+      </c>
+    </row>
+    <row r="25" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="C25" s="43" t="s">
+        <v>13</v>
+      </c>
+      <c r="D25" s="9">
+        <v>1</v>
+      </c>
+      <c r="E25" s="9">
+        <v>31</v>
+      </c>
+      <c r="F25" s="9">
+        <f t="shared" si="0"/>
+        <v>31</v>
+      </c>
+      <c r="H25" s="9"/>
+      <c r="I25" s="9"/>
+      <c r="J25" s="9">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K25" s="9"/>
+      <c r="L25" s="9"/>
+      <c r="M25" s="9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N25" s="9">
+        <v>64</v>
+      </c>
+      <c r="O25" s="9">
+        <v>1</v>
+      </c>
+      <c r="P25" s="9">
+        <f t="shared" si="2"/>
+        <v>3.0182929241112313E-4</v>
+      </c>
+    </row>
+    <row r="26" spans="2:16" x14ac:dyDescent="0.3">
       <c r="C26" s="43" t="s">
-        <v>23</v>
-      </c>
-      <c r="D26" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="E26" s="14" t="s">
-        <v>60</v>
-      </c>
-      <c r="F26" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="H26" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="I26" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="J26" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D26" s="9">
+        <v>2</v>
+      </c>
+      <c r="E26" s="9">
         <v>24</v>
       </c>
-      <c r="K26" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="M26" s="8"/>
-      <c r="N26" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="O26" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="P26" s="8"/>
+      <c r="F26" s="9">
+        <f t="shared" si="0"/>
+        <v>48</v>
+      </c>
+      <c r="H26" s="9">
+        <v>12</v>
+      </c>
+      <c r="I26" s="9">
+        <v>2</v>
+      </c>
+      <c r="J26" s="9">
+        <f t="shared" si="3"/>
+        <v>3.3395950740972655E-3</v>
+      </c>
+      <c r="K26" s="9"/>
+      <c r="L26" s="9"/>
+      <c r="M26" s="9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N26" s="9">
+        <v>192</v>
+      </c>
+      <c r="O26" s="9">
+        <v>1</v>
+      </c>
+      <c r="P26" s="9">
+        <f t="shared" si="2"/>
+        <v>7.0102287269680212E-4</v>
+      </c>
     </row>
     <row r="27" spans="2:16" x14ac:dyDescent="0.3">
       <c r="C27" s="43" t="s">
+        <v>7</v>
+      </c>
+      <c r="D27" s="9">
         <v>2</v>
       </c>
-      <c r="D27" s="9">
+      <c r="E27" s="9">
+        <v>33</v>
+      </c>
+      <c r="F27" s="9">
+        <f>E27*D27</f>
+        <v>66</v>
+      </c>
+      <c r="H27" s="9">
+        <v>8</v>
+      </c>
+      <c r="I27" s="9">
+        <v>2</v>
+      </c>
+      <c r="J27" s="9">
+        <f t="shared" si="3"/>
+        <v>3.0612954845891604E-3</v>
+      </c>
+      <c r="K27" s="9"/>
+      <c r="L27" s="9"/>
+      <c r="M27" s="9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N27" s="9">
+        <v>128</v>
+      </c>
+      <c r="O27" s="9">
+        <v>1</v>
+      </c>
+      <c r="P27" s="9">
+        <f t="shared" si="2"/>
+        <v>6.4260429997206863E-4</v>
+      </c>
+    </row>
+    <row r="28" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="E28" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="F28" s="9">
+        <f>SUM(F14:F27)</f>
+        <v>6388</v>
+      </c>
+      <c r="J28" s="14">
+        <f>SUM(J14:J27)</f>
+        <v>0.44358635404346108</v>
+      </c>
+      <c r="M28" s="14">
+        <f>SUM(M14:M27)</f>
+        <v>0.71606484380435531</v>
+      </c>
+      <c r="P28" s="9">
+        <f>SUM(P14:P27)</f>
+        <v>0.69328241181077488</v>
+      </c>
+    </row>
+    <row r="30" spans="2:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="31" spans="2:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H31" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I31" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="J31" s="5"/>
+      <c r="K31" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="L31" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="M31" s="5"/>
+      <c r="N31" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="O31" s="4">
+        <v>132</v>
+      </c>
+      <c r="P31" s="5"/>
+    </row>
+    <row r="32" spans="2:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B32" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C32" s="43" t="s">
+        <v>23</v>
+      </c>
+      <c r="D32" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="E32" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="F32" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="H32" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="E27" s="9">
+      <c r="I32" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="J32" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="K32" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="L32" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="M32" s="8"/>
+      <c r="N32" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="O32" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="P32" s="8"/>
+    </row>
+    <row r="33" spans="3:16" x14ac:dyDescent="0.3">
+      <c r="C33" s="43" t="s">
+        <v>2</v>
+      </c>
+      <c r="D33" s="9">
+        <v>16</v>
+      </c>
+      <c r="E33" s="9">
         <f>(2056+1978+1736+1820+1802+1773+2010+2033+1913+1737+2011+1771+1804+1881+1977+1956)/16</f>
         <v>1891.125</v>
       </c>
-      <c r="F27" s="9">
-        <f>E27*D27</f>
+      <c r="F33" s="9">
+        <f>E33*D33</f>
         <v>30258</v>
       </c>
-      <c r="H27" s="10">
+      <c r="H33" s="10">
         <v>16</v>
       </c>
-      <c r="I27" s="10">
+      <c r="I33" s="10">
         <v>2</v>
       </c>
-      <c r="J27" s="10">
-        <f>I27*H27*E27/(33002*27)</f>
+      <c r="J33" s="10">
+        <f>I33*H33*E33/(33002*27)</f>
         <v>6.7915075853988649E-2</v>
       </c>
-      <c r="K27" s="10">
+      <c r="K33" s="10">
         <v>32</v>
       </c>
-      <c r="L27" s="10">
+      <c r="L33" s="10">
         <v>2</v>
       </c>
-      <c r="M27" s="10">
-        <f>L27*K27*E27/(33002*36)</f>
+      <c r="M33" s="10">
+        <f>L33*K33*E33/(33002*36)</f>
         <v>0.10187261378098297</v>
       </c>
-      <c r="N27" s="10">
+      <c r="N33" s="10">
         <v>128</v>
       </c>
-      <c r="O27" s="10">
+      <c r="O33" s="10">
         <v>16</v>
       </c>
-      <c r="P27" s="10">
-        <f>O27*N27*E27/(33002*132)</f>
+      <c r="P33" s="10">
+        <f>O33*N33*E33/(33002*132)</f>
         <v>0.88907008390676046</v>
-      </c>
-    </row>
-    <row r="28" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="C28" s="43" t="s">
-        <v>0</v>
-      </c>
-      <c r="D28" s="9">
-        <v>2</v>
-      </c>
-      <c r="E28" s="9">
-        <v>113</v>
-      </c>
-      <c r="F28" s="9">
-        <f t="shared" ref="F28:F40" si="4">E28*D28</f>
-        <v>226</v>
-      </c>
-      <c r="H28" s="9">
-        <v>12</v>
-      </c>
-      <c r="I28" s="9">
-        <v>2</v>
-      </c>
-      <c r="J28" s="10">
-        <f t="shared" ref="J28:J40" si="5">I28*H28*E28/(33002*27)</f>
-        <v>3.0435865839780756E-3</v>
-      </c>
-      <c r="K28" s="9"/>
-      <c r="L28" s="9"/>
-      <c r="M28" s="10">
-        <f t="shared" ref="M28:M40" si="6">L28*K28*E28/(33002*36)</f>
-        <v>0</v>
-      </c>
-      <c r="N28" s="9"/>
-      <c r="O28" s="9"/>
-      <c r="P28" s="10">
-        <f t="shared" ref="P28:P40" si="7">O28*N28*E28/(33002*132)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="C29" s="43" t="s">
-        <v>1</v>
-      </c>
-      <c r="D29" s="9">
-        <v>2</v>
-      </c>
-      <c r="E29" s="9">
-        <f>(95+101)/2</f>
-        <v>98</v>
-      </c>
-      <c r="F29" s="9">
-        <f t="shared" si="4"/>
-        <v>196</v>
-      </c>
-      <c r="H29" s="9">
-        <v>4</v>
-      </c>
-      <c r="I29" s="9">
-        <v>2</v>
-      </c>
-      <c r="J29" s="10">
-        <f t="shared" si="5"/>
-        <v>8.7985688858363239E-4</v>
-      </c>
-      <c r="K29" s="9"/>
-      <c r="L29" s="9"/>
-      <c r="M29" s="10">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="N29" s="9"/>
-      <c r="O29" s="9"/>
-      <c r="P29" s="10">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="C30" s="43" t="s">
-        <v>4</v>
-      </c>
-      <c r="D30" s="9">
-        <v>2</v>
-      </c>
-      <c r="E30" s="9">
-        <f>(116+122)/2</f>
-        <v>119</v>
-      </c>
-      <c r="F30" s="9">
-        <f t="shared" si="4"/>
-        <v>238</v>
-      </c>
-      <c r="H30" s="9">
-        <v>4</v>
-      </c>
-      <c r="I30" s="9">
-        <v>2</v>
-      </c>
-      <c r="J30" s="10">
-        <f t="shared" si="5"/>
-        <v>1.0683976504229822E-3</v>
-      </c>
-      <c r="K30" s="9"/>
-      <c r="L30" s="9"/>
-      <c r="M30" s="10">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="N30" s="9"/>
-      <c r="O30" s="9"/>
-      <c r="P30" s="10">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="C31" s="43" t="s">
-        <v>5</v>
-      </c>
-      <c r="D31" s="9">
-        <v>2</v>
-      </c>
-      <c r="E31" s="9">
-        <f>(49+62)/2</f>
-        <v>55.5</v>
-      </c>
-      <c r="F31" s="9">
-        <f t="shared" si="4"/>
-        <v>111</v>
-      </c>
-      <c r="H31" s="9">
-        <v>4</v>
-      </c>
-      <c r="I31" s="9">
-        <v>2</v>
-      </c>
-      <c r="J31" s="10">
-        <f t="shared" si="5"/>
-        <v>4.9828629914685303E-4</v>
-      </c>
-      <c r="K31" s="9"/>
-      <c r="L31" s="9"/>
-      <c r="M31" s="10">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="N31" s="9"/>
-      <c r="O31" s="9"/>
-      <c r="P31" s="10">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="C32" s="43"/>
-      <c r="D32" s="9"/>
-      <c r="E32" s="9"/>
-      <c r="F32" s="9">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="H32" s="9"/>
-      <c r="I32" s="9"/>
-      <c r="J32" s="10">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="K32" s="9"/>
-      <c r="L32" s="9"/>
-      <c r="M32" s="10">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="N32" s="9"/>
-      <c r="O32" s="9"/>
-      <c r="P32" s="10">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="3:16" x14ac:dyDescent="0.3">
-      <c r="C33" s="43" t="s">
-        <v>8</v>
-      </c>
-      <c r="D33" s="9">
-        <v>2</v>
-      </c>
-      <c r="E33" s="9">
-        <f>(134+117)/2</f>
-        <v>125.5</v>
-      </c>
-      <c r="F33" s="9">
-        <f t="shared" si="4"/>
-        <v>251</v>
-      </c>
-      <c r="H33" s="9"/>
-      <c r="I33" s="9"/>
-      <c r="J33" s="10">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="K33" s="9">
-        <v>32</v>
-      </c>
-      <c r="L33" s="9">
-        <v>2</v>
-      </c>
-      <c r="M33" s="10">
-        <f t="shared" si="6"/>
-        <v>6.7605330316681143E-3</v>
-      </c>
-      <c r="N33" s="9"/>
-      <c r="O33" s="9"/>
-      <c r="P33" s="10">
-        <f t="shared" si="7"/>
-        <v>0</v>
       </c>
     </row>
     <row r="34" spans="3:16" x14ac:dyDescent="0.3">
       <c r="C34" s="43" t="s">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="D34" s="9">
         <v>2</v>
       </c>
       <c r="E34" s="9">
-        <f>(428+45)/2</f>
-        <v>236.5</v>
+        <v>113</v>
       </c>
       <c r="F34" s="9">
-        <f t="shared" si="4"/>
-        <v>473</v>
-      </c>
-      <c r="H34" s="9"/>
-      <c r="I34" s="9"/>
+        <f t="shared" ref="F34:F46" si="4">E34*D34</f>
+        <v>226</v>
+      </c>
+      <c r="H34" s="9">
+        <v>12</v>
+      </c>
+      <c r="I34" s="9">
+        <v>2</v>
+      </c>
       <c r="J34" s="10">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="K34" s="9">
-        <v>32</v>
-      </c>
-      <c r="L34" s="9">
-        <v>2</v>
-      </c>
+        <f t="shared" ref="J34:J46" si="5">I34*H34*E34/(33002*27)</f>
+        <v>3.0435865839780756E-3</v>
+      </c>
+      <c r="K34" s="9"/>
+      <c r="L34" s="9"/>
       <c r="M34" s="10">
-        <f t="shared" si="6"/>
-        <v>1.2739968621430351E-2</v>
+        <f t="shared" ref="M34:M46" si="6">L34*K34*E34/(33002*36)</f>
+        <v>0</v>
       </c>
       <c r="N34" s="9"/>
       <c r="O34" s="9"/>
       <c r="P34" s="10">
-        <f t="shared" si="7"/>
+        <f t="shared" ref="P34:P46" si="7">O34*N34*E34/(33002*132)</f>
         <v>0</v>
       </c>
     </row>
     <row r="35" spans="3:16" x14ac:dyDescent="0.3">
       <c r="C35" s="43" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="D35" s="9">
         <v>2</v>
       </c>
       <c r="E35" s="9">
-        <v>135</v>
+        <f>(95+101)/2</f>
+        <v>98</v>
       </c>
       <c r="F35" s="9">
         <f t="shared" si="4"/>
-        <v>270</v>
-      </c>
-      <c r="H35" s="9"/>
-      <c r="I35" s="9"/>
+        <v>196</v>
+      </c>
+      <c r="H35" s="9">
+        <v>4</v>
+      </c>
+      <c r="I35" s="9">
+        <v>2</v>
+      </c>
       <c r="J35" s="10">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>8.7985688858363239E-4</v>
       </c>
       <c r="K35" s="9"/>
       <c r="L35" s="9"/>
@@ -2230,36 +5439,37 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="N35" s="9">
-        <v>96</v>
-      </c>
-      <c r="O35" s="9">
-        <v>2</v>
-      </c>
+      <c r="N35" s="9"/>
+      <c r="O35" s="9"/>
       <c r="P35" s="10">
         <f t="shared" si="7"/>
-        <v>5.9500526138911687E-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="3:16" x14ac:dyDescent="0.3">
       <c r="C36" s="43" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="D36" s="9">
         <v>2</v>
       </c>
       <c r="E36" s="9">
-        <v>175</v>
+        <f>(116+122)/2</f>
+        <v>119</v>
       </c>
       <c r="F36" s="9">
         <f t="shared" si="4"/>
-        <v>350</v>
-      </c>
-      <c r="H36" s="9"/>
-      <c r="I36" s="9"/>
+        <v>238</v>
+      </c>
+      <c r="H36" s="9">
+        <v>4</v>
+      </c>
+      <c r="I36" s="9">
+        <v>2</v>
+      </c>
       <c r="J36" s="10">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1.0683976504229822E-3</v>
       </c>
       <c r="K36" s="9"/>
       <c r="L36" s="9"/>
@@ -2267,37 +5477,37 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="N36" s="9">
-        <v>32</v>
-      </c>
-      <c r="O36" s="9">
-        <v>2</v>
-      </c>
+      <c r="N36" s="9"/>
+      <c r="O36" s="9"/>
       <c r="P36" s="10">
         <f t="shared" si="7"/>
-        <v>2.5710103887184063E-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="3:16" x14ac:dyDescent="0.3">
       <c r="C37" s="43" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="D37" s="9">
         <v>2</v>
       </c>
       <c r="E37" s="9">
-        <f>(116+211)/2</f>
-        <v>163.5</v>
+        <f>(49+62)/2</f>
+        <v>55.5</v>
       </c>
       <c r="F37" s="9">
         <f t="shared" si="4"/>
-        <v>327</v>
-      </c>
-      <c r="H37" s="9"/>
-      <c r="I37" s="9"/>
+        <v>111</v>
+      </c>
+      <c r="H37" s="9">
+        <v>4</v>
+      </c>
+      <c r="I37" s="9">
+        <v>2</v>
+      </c>
       <c r="J37" s="10">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>4.9828629914685303E-4</v>
       </c>
       <c r="K37" s="9"/>
       <c r="L37" s="9"/>
@@ -2305,31 +5515,20 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="N37" s="9">
-        <v>32</v>
-      </c>
-      <c r="O37" s="9">
-        <v>2</v>
-      </c>
+      <c r="N37" s="9"/>
+      <c r="O37" s="9"/>
       <c r="P37" s="10">
         <f t="shared" si="7"/>
-        <v>2.4020582774597682E-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="3:16" x14ac:dyDescent="0.3">
-      <c r="C38" s="43" t="s">
-        <v>13</v>
-      </c>
-      <c r="D38" s="9">
-        <v>2</v>
-      </c>
-      <c r="E38" s="9">
-        <f>(96+88)/2</f>
-        <v>92</v>
-      </c>
+      <c r="C38" s="43"/>
+      <c r="D38" s="9"/>
+      <c r="E38" s="9"/>
       <c r="F38" s="9">
         <f t="shared" si="4"/>
-        <v>184</v>
+        <v>0</v>
       </c>
       <c r="H38" s="9"/>
       <c r="I38" s="9"/>
@@ -2343,117 +5542,339 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="N38" s="9">
-        <v>32</v>
-      </c>
-      <c r="O38" s="9">
-        <v>2</v>
-      </c>
+      <c r="N38" s="9"/>
+      <c r="O38" s="9"/>
       <c r="P38" s="10">
         <f t="shared" si="7"/>
-        <v>1.3516168900691052E-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="3:16" x14ac:dyDescent="0.3">
       <c r="C39" s="43" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D39" s="9">
         <v>2</v>
       </c>
       <c r="E39" s="9">
-        <v>26</v>
+        <f>(134+117)/2</f>
+        <v>125.5</v>
       </c>
       <c r="F39" s="9">
         <f t="shared" si="4"/>
-        <v>52</v>
-      </c>
-      <c r="H39" s="9">
-        <v>12</v>
-      </c>
-      <c r="I39" s="9">
-        <v>2</v>
-      </c>
+        <v>251</v>
+      </c>
+      <c r="H39" s="9"/>
+      <c r="I39" s="9"/>
       <c r="J39" s="10">
         <f t="shared" si="5"/>
-        <v>7.0029425826044218E-4</v>
-      </c>
-      <c r="K39" s="9"/>
-      <c r="L39" s="9"/>
+        <v>0</v>
+      </c>
+      <c r="K39" s="9">
+        <v>32</v>
+      </c>
+      <c r="L39" s="9">
+        <v>2</v>
+      </c>
       <c r="M39" s="10">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="N39" s="9">
-        <v>96</v>
-      </c>
-      <c r="O39" s="9">
-        <v>2</v>
-      </c>
+        <v>6.7605330316681143E-3</v>
+      </c>
+      <c r="N39" s="9"/>
+      <c r="O39" s="9"/>
       <c r="P39" s="10">
         <f t="shared" si="7"/>
-        <v>1.1459360589716327E-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="3:16" x14ac:dyDescent="0.3">
       <c r="C40" s="43" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D40" s="9">
         <v>2</v>
       </c>
       <c r="E40" s="9">
-        <v>33</v>
+        <f>(428+45)/2</f>
+        <v>236.5</v>
       </c>
       <c r="F40" s="9">
         <f t="shared" si="4"/>
-        <v>66</v>
-      </c>
-      <c r="H40" s="9">
-        <v>8</v>
-      </c>
-      <c r="I40" s="9">
-        <v>2</v>
-      </c>
+        <v>473</v>
+      </c>
+      <c r="H40" s="9"/>
+      <c r="I40" s="9"/>
       <c r="J40" s="10">
         <f t="shared" si="5"/>
-        <v>5.9255668006652799E-4</v>
-      </c>
-      <c r="K40" s="9"/>
-      <c r="L40" s="9"/>
+        <v>0</v>
+      </c>
+      <c r="K40" s="9">
+        <v>32</v>
+      </c>
+      <c r="L40" s="9">
+        <v>2</v>
+      </c>
       <c r="M40" s="10">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="N40" s="9">
-        <v>64</v>
-      </c>
-      <c r="O40" s="9">
-        <v>2</v>
-      </c>
+        <v>1.2739968621430351E-2</v>
+      </c>
+      <c r="N40" s="9"/>
+      <c r="O40" s="9"/>
       <c r="P40" s="10">
         <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="3:16" x14ac:dyDescent="0.3">
+      <c r="C41" s="43" t="s">
+        <v>10</v>
+      </c>
+      <c r="D41" s="9">
+        <v>2</v>
+      </c>
+      <c r="E41" s="9">
+        <v>135</v>
+      </c>
+      <c r="F41" s="9">
+        <f t="shared" si="4"/>
+        <v>270</v>
+      </c>
+      <c r="H41" s="9"/>
+      <c r="I41" s="9"/>
+      <c r="J41" s="10">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="K41" s="9"/>
+      <c r="L41" s="9"/>
+      <c r="M41" s="10">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="N41" s="9">
+        <v>96</v>
+      </c>
+      <c r="O41" s="9">
+        <v>2</v>
+      </c>
+      <c r="P41" s="10">
+        <f t="shared" si="7"/>
+        <v>5.9500526138911687E-3</v>
+      </c>
+    </row>
+    <row r="42" spans="3:16" x14ac:dyDescent="0.3">
+      <c r="C42" s="43" t="s">
+        <v>11</v>
+      </c>
+      <c r="D42" s="9">
+        <v>2</v>
+      </c>
+      <c r="E42" s="9">
+        <v>175</v>
+      </c>
+      <c r="F42" s="9">
+        <f t="shared" si="4"/>
+        <v>350</v>
+      </c>
+      <c r="H42" s="9"/>
+      <c r="I42" s="9"/>
+      <c r="J42" s="10">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="K42" s="9"/>
+      <c r="L42" s="9"/>
+      <c r="M42" s="10">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="N42" s="9">
+        <v>32</v>
+      </c>
+      <c r="O42" s="9">
+        <v>2</v>
+      </c>
+      <c r="P42" s="10">
+        <f t="shared" si="7"/>
+        <v>2.5710103887184063E-3</v>
+      </c>
+    </row>
+    <row r="43" spans="3:16" x14ac:dyDescent="0.3">
+      <c r="C43" s="43" t="s">
+        <v>12</v>
+      </c>
+      <c r="D43" s="9">
+        <v>2</v>
+      </c>
+      <c r="E43" s="9">
+        <f>(116+211)/2</f>
+        <v>163.5</v>
+      </c>
+      <c r="F43" s="9">
+        <f t="shared" si="4"/>
+        <v>327</v>
+      </c>
+      <c r="H43" s="9"/>
+      <c r="I43" s="9"/>
+      <c r="J43" s="10">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="K43" s="9"/>
+      <c r="L43" s="9"/>
+      <c r="M43" s="10">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="N43" s="9">
+        <v>32</v>
+      </c>
+      <c r="O43" s="9">
+        <v>2</v>
+      </c>
+      <c r="P43" s="10">
+        <f t="shared" si="7"/>
+        <v>2.4020582774597682E-3</v>
+      </c>
+    </row>
+    <row r="44" spans="3:16" x14ac:dyDescent="0.3">
+      <c r="C44" s="43" t="s">
+        <v>13</v>
+      </c>
+      <c r="D44" s="9">
+        <v>2</v>
+      </c>
+      <c r="E44" s="9">
+        <f>(96+88)/2</f>
+        <v>92</v>
+      </c>
+      <c r="F44" s="9">
+        <f t="shared" si="4"/>
+        <v>184</v>
+      </c>
+      <c r="H44" s="9"/>
+      <c r="I44" s="9"/>
+      <c r="J44" s="10">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="K44" s="9"/>
+      <c r="L44" s="9"/>
+      <c r="M44" s="10">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="N44" s="9">
+        <v>32</v>
+      </c>
+      <c r="O44" s="9">
+        <v>2</v>
+      </c>
+      <c r="P44" s="10">
+        <f t="shared" si="7"/>
+        <v>1.3516168900691052E-3</v>
+      </c>
+    </row>
+    <row r="45" spans="3:16" x14ac:dyDescent="0.3">
+      <c r="C45" s="43" t="s">
+        <v>6</v>
+      </c>
+      <c r="D45" s="9">
+        <v>2</v>
+      </c>
+      <c r="E45" s="9">
+        <v>26</v>
+      </c>
+      <c r="F45" s="9">
+        <f t="shared" si="4"/>
+        <v>52</v>
+      </c>
+      <c r="H45" s="9">
+        <v>12</v>
+      </c>
+      <c r="I45" s="9">
+        <v>2</v>
+      </c>
+      <c r="J45" s="10">
+        <f t="shared" si="5"/>
+        <v>7.0029425826044218E-4</v>
+      </c>
+      <c r="K45" s="9"/>
+      <c r="L45" s="9"/>
+      <c r="M45" s="10">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="N45" s="9">
+        <v>96</v>
+      </c>
+      <c r="O45" s="9">
+        <v>2</v>
+      </c>
+      <c r="P45" s="10">
+        <f t="shared" si="7"/>
+        <v>1.1459360589716327E-3</v>
+      </c>
+    </row>
+    <row r="46" spans="3:16" x14ac:dyDescent="0.3">
+      <c r="C46" s="43" t="s">
+        <v>7</v>
+      </c>
+      <c r="D46" s="9">
+        <v>2</v>
+      </c>
+      <c r="E46" s="9">
+        <v>33</v>
+      </c>
+      <c r="F46" s="9">
+        <f t="shared" si="4"/>
+        <v>66</v>
+      </c>
+      <c r="H46" s="9">
+        <v>8</v>
+      </c>
+      <c r="I46" s="9">
+        <v>2</v>
+      </c>
+      <c r="J46" s="10">
+        <f t="shared" si="5"/>
+        <v>5.9255668006652799E-4</v>
+      </c>
+      <c r="K46" s="9"/>
+      <c r="L46" s="9"/>
+      <c r="M46" s="10">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="N46" s="9">
+        <v>64</v>
+      </c>
+      <c r="O46" s="9">
+        <v>2</v>
+      </c>
+      <c r="P46" s="10">
+        <f t="shared" si="7"/>
         <v>9.696382037452276E-4</v>
       </c>
     </row>
-    <row r="41" spans="3:16" x14ac:dyDescent="0.3">
-      <c r="E41" s="9" t="s">
+    <row r="47" spans="3:16" x14ac:dyDescent="0.3">
+      <c r="E47" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="F41" s="9">
-        <f>SUM(F27:F40)</f>
+      <c r="F47" s="9">
+        <f>SUM(F33:F46)</f>
         <v>33002</v>
       </c>
-      <c r="J41" s="14">
-        <f>SUM(J27:J40)</f>
+      <c r="J47" s="14">
+        <f>SUM(J33:J46)</f>
         <v>7.4698054214447154E-2</v>
       </c>
-      <c r="M41" s="14">
-        <f>SUM(M27:M40)</f>
+      <c r="M47" s="14">
+        <f>SUM(M33:M46)</f>
         <v>0.12137311543408144</v>
       </c>
-      <c r="P41" s="9">
-        <f>SUM(P27:P40)</f>
+      <c r="P47" s="9">
+        <f>SUM(P33:P46)</f>
         <v>0.90346039633961572</v>
       </c>
     </row>
@@ -2461,15 +5882,16 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:M30"/>
+  <dimension ref="A1:I37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2482,34 +5904,60 @@
     <col min="13" max="13" width="17.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C1" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="D1" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="E1" s="26" t="s">
+        <v>32</v>
+      </c>
+      <c r="F1" s="13" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="C2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D2">
+        <f>4*183715/5</f>
+        <v>146972</v>
+      </c>
+      <c r="E2">
+        <f>4*76375/5</f>
+        <v>61100</v>
+      </c>
+      <c r="F2">
+        <f>4*140/5</f>
+        <v>112</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="23"/>
       <c r="B3" s="23"/>
-      <c r="C3" s="23"/>
-      <c r="J3" s="23"/>
-      <c r="K3" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="L3" s="13" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C3" s="23" t="s">
+        <v>66</v>
+      </c>
+      <c r="D3">
+        <f>199406-D2</f>
+        <v>52434</v>
+      </c>
+      <c r="E3">
+        <f>80953-E2</f>
+        <v>19853</v>
+      </c>
+      <c r="F3">
+        <f>150-F2</f>
+        <v>38</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="23"/>
-      <c r="J4" s="23" t="s">
-        <v>34</v>
-      </c>
-      <c r="K4" s="23" t="s">
-        <v>47</v>
-      </c>
-      <c r="L4" s="23" t="s">
-        <v>48</v>
-      </c>
-      <c r="M4" s="13" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="5" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="23"/>
       <c r="B5" s="23"/>
       <c r="C5" s="11" t="s">
@@ -2521,29 +5969,20 @@
       <c r="E5" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="F5" s="26" t="s">
+      <c r="F5" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="G5" s="26" t="s">
         <v>40</v>
       </c>
-      <c r="G5" s="27" t="s">
+      <c r="H5" s="27" t="s">
         <v>41</v>
       </c>
-      <c r="H5" s="28" t="s">
+      <c r="I5" s="28" t="s">
         <v>33</v>
       </c>
-      <c r="J5" s="23" t="s">
-        <v>35</v>
-      </c>
-      <c r="K5" s="23" t="s">
-        <v>47</v>
-      </c>
-      <c r="L5" s="23" t="s">
-        <v>49</v>
-      </c>
-      <c r="M5" s="13" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="23"/>
       <c r="B6" s="23"/>
       <c r="C6" s="30" t="s">
@@ -2555,17 +5994,21 @@
       <c r="E6" s="10">
         <v>1499</v>
       </c>
-      <c r="F6" s="10">
-        <v>0</v>
-      </c>
-      <c r="G6" s="24">
+      <c r="F6">
+        <f>SUM(G6,H6)</f>
         <v>10</v>
       </c>
-      <c r="H6" s="40">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="G6" s="10">
+        <v>0</v>
+      </c>
+      <c r="H6" s="24">
+        <v>10</v>
+      </c>
+      <c r="I6" s="40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="23"/>
       <c r="B7" s="23"/>
       <c r="C7" s="31" t="s">
@@ -2577,17 +6020,21 @@
       <c r="E7" s="9">
         <v>2282</v>
       </c>
-      <c r="F7" s="9">
+      <c r="F7">
+        <f t="shared" ref="F7:F10" si="0">SUM(G7,H7)</f>
+        <v>17</v>
+      </c>
+      <c r="G7" s="9">
         <v>14</v>
       </c>
-      <c r="G7" s="14">
+      <c r="H7" s="14">
         <v>3</v>
       </c>
-      <c r="H7" s="41">
+      <c r="I7" s="41">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="23"/>
       <c r="B8" s="23"/>
       <c r="C8" s="31" t="s">
@@ -2599,17 +6046,21 @@
       <c r="E8" s="9">
         <v>0</v>
       </c>
-      <c r="F8" s="9">
+      <c r="F8">
+        <f t="shared" si="0"/>
+        <v>67</v>
+      </c>
+      <c r="G8" s="9">
         <v>64</v>
       </c>
-      <c r="G8" s="9">
+      <c r="H8" s="9">
         <v>3</v>
       </c>
-      <c r="H8" s="41">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="I8" s="41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="23"/>
       <c r="C9" s="31" t="s">
         <v>39</v>
@@ -2620,17 +6071,21 @@
       <c r="E9" s="14">
         <v>649</v>
       </c>
-      <c r="F9" s="14">
+      <c r="F9">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="G9" s="14">
         <v>11</v>
       </c>
-      <c r="G9" s="14">
+      <c r="H9" s="14">
         <v>1</v>
       </c>
-      <c r="H9" s="41">
+      <c r="I9" s="41">
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="23"/>
       <c r="C10" s="32" t="s">
         <v>42</v>
@@ -2641,46 +6096,54 @@
       <c r="E10" s="39">
         <v>0</v>
       </c>
-      <c r="F10" s="39">
+      <c r="F10">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G10" s="39">
         <v>0</v>
       </c>
-      <c r="H10" s="42">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H10" s="39">
+        <v>0</v>
+      </c>
+      <c r="I10" s="42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="23"/>
       <c r="C11" s="33" t="s">
-        <v>44</v>
+        <v>64</v>
       </c>
       <c r="D11" s="25">
         <f>SUM(D6:D10)</f>
         <v>22405</v>
       </c>
       <c r="E11" s="26">
-        <f t="shared" ref="E11:H11" si="0">SUM(E6:E10)</f>
+        <f>SUM(E6:E10)</f>
         <v>4430</v>
       </c>
       <c r="F11" s="26">
-        <f t="shared" si="0"/>
+        <f>SUM(F6:F10)</f>
+        <v>106</v>
+      </c>
+      <c r="G11" s="26">
+        <f>SUM(G6:G10)</f>
         <v>89</v>
       </c>
-      <c r="G11" s="26">
-        <f t="shared" si="0"/>
+      <c r="H11" s="26">
+        <f>SUM(H6:H10)</f>
         <v>17</v>
       </c>
-      <c r="H11" s="34">
-        <f t="shared" si="0"/>
+      <c r="I11" s="34">
+        <f>SUM(I6:I10)</f>
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="23"/>
       <c r="C12" s="9" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="D12" s="9">
         <v>10.249313815187557</v>
@@ -2688,25 +6151,25 @@
       <c r="E12" s="9">
         <v>1.0132662397072278</v>
       </c>
-      <c r="F12" s="9">
+      <c r="G12" s="9">
         <v>19.449541284403672</v>
       </c>
-      <c r="G12" s="9"/>
-      <c r="H12" s="9">
+      <c r="H12" s="9"/>
+      <c r="I12" s="9">
         <v>1.1111111111111112</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="23"/>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="23"/>
     </row>
-    <row r="15" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="23"/>
       <c r="B15" s="23"/>
     </row>
-    <row r="16" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="23"/>
       <c r="B16" s="23"/>
       <c r="C16" s="11" t="s">
@@ -2718,17 +6181,20 @@
       <c r="E16" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="F16" s="26" t="s">
+      <c r="F16" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="G16" s="26" t="s">
         <v>40</v>
       </c>
-      <c r="G16" s="27" t="s">
+      <c r="H16" s="27" t="s">
         <v>41</v>
       </c>
-      <c r="H16" s="28" t="s">
+      <c r="I16" s="28" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" s="23"/>
       <c r="B17" s="23"/>
       <c r="C17" s="36" t="s">
@@ -2740,17 +6206,21 @@
       <c r="E17" s="24">
         <v>1499</v>
       </c>
-      <c r="F17" s="24">
-        <v>0</v>
+      <c r="F17">
+        <f>SUM(G17,H17)</f>
+        <v>10</v>
       </c>
       <c r="G17" s="24">
+        <v>0</v>
+      </c>
+      <c r="H17" s="24">
         <v>10</v>
       </c>
-      <c r="H17" s="40">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I17" s="40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" s="23"/>
       <c r="B18" s="23"/>
       <c r="C18" s="31" t="s">
@@ -2762,17 +6232,21 @@
       <c r="E18" s="14">
         <v>2434</v>
       </c>
-      <c r="F18" s="14">
+      <c r="F18">
+        <f t="shared" ref="F18:F21" si="1">SUM(G18,H18)</f>
+        <v>49</v>
+      </c>
+      <c r="G18" s="14">
         <v>42</v>
       </c>
-      <c r="G18" s="14">
+      <c r="H18" s="14">
         <v>7</v>
       </c>
-      <c r="H18" s="41">
+      <c r="I18" s="41">
         <v>8</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" s="23"/>
       <c r="B19" s="23"/>
       <c r="C19" s="31" t="s">
@@ -2784,17 +6258,21 @@
       <c r="E19" s="9">
         <v>3</v>
       </c>
-      <c r="F19" s="9">
+      <c r="F19">
+        <f t="shared" si="1"/>
+        <v>66</v>
+      </c>
+      <c r="G19" s="9">
         <v>64</v>
       </c>
-      <c r="G19" s="14">
+      <c r="H19" s="14">
         <v>2</v>
       </c>
-      <c r="H19" s="41">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I19" s="41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" s="23"/>
       <c r="B20" s="23"/>
       <c r="C20" s="31" t="s">
@@ -2806,17 +6284,21 @@
       <c r="E20" s="14">
         <v>649</v>
       </c>
-      <c r="F20" s="14">
+      <c r="F20">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="G20" s="14">
         <v>11</v>
       </c>
-      <c r="G20" s="14">
+      <c r="H20" s="14">
         <v>1</v>
       </c>
-      <c r="H20" s="41">
+      <c r="I20" s="41">
         <v>4</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="23"/>
       <c r="B21" s="23"/>
       <c r="C21" s="32" t="s">
@@ -2828,48 +6310,56 @@
       <c r="E21" s="39">
         <v>0</v>
       </c>
-      <c r="F21" s="39">
+      <c r="F21">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G21" s="39">
         <v>0</v>
       </c>
-      <c r="H21" s="42">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H21" s="39">
+        <v>0</v>
+      </c>
+      <c r="I21" s="42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="23"/>
       <c r="B22" s="23"/>
       <c r="C22" s="35" t="s">
-        <v>44</v>
+        <v>65</v>
       </c>
       <c r="D22" s="25">
         <f>SUM(D17:D21)</f>
         <v>50238</v>
       </c>
       <c r="E22" s="26">
-        <f t="shared" ref="E22:H22" si="1">SUM(E17:E21)</f>
+        <f t="shared" ref="E22:H22" si="2">SUM(E17:E21)</f>
         <v>4585</v>
       </c>
       <c r="F22" s="26">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
+        <v>137</v>
+      </c>
+      <c r="G22" s="26">
+        <f>SUM(G17:G21)</f>
         <v>117</v>
       </c>
-      <c r="G22" s="26">
-        <f t="shared" si="1"/>
+      <c r="H22" s="26">
+        <f>SUM(H17:H21)</f>
         <v>20</v>
       </c>
-      <c r="H22" s="34">
-        <f t="shared" si="1"/>
+      <c r="I22" s="34">
+        <f>SUM(I17:I21)</f>
         <v>12</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" s="23"/>
       <c r="B23" s="23"/>
       <c r="C23" s="9" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="D23" s="9">
         <v>22.981701738334859</v>
@@ -2877,15 +6367,15 @@
       <c r="E23" s="9">
         <v>1.0487191216834402</v>
       </c>
-      <c r="F23" s="9">
+      <c r="G23" s="9">
         <v>21.467889908256883</v>
       </c>
-      <c r="G23" s="9"/>
-      <c r="H23" s="9">
+      <c r="H23" s="9"/>
+      <c r="I23" s="9">
         <v>1.3333333333333335</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" s="23"/>
       <c r="B24" s="23"/>
       <c r="C24" s="23"/>
@@ -2894,7 +6384,7 @@
       <c r="F24" s="23"/>
       <c r="G24" s="23"/>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25" s="23"/>
       <c r="B25" s="23"/>
       <c r="C25" s="23"/>
@@ -2903,7 +6393,7 @@
       <c r="F25" s="23"/>
       <c r="G25" s="23"/>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="23"/>
       <c r="B26" s="23"/>
       <c r="C26" s="23"/>
@@ -2912,42 +6402,67 @@
       <c r="F26" s="23"/>
       <c r="G26" s="23"/>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="C29" s="9"/>
-      <c r="D29" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="E29" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="F29" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="G29" s="9"/>
-      <c r="H29" s="9" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="C30" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="D30" s="9">
+    <row r="27" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D27" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="E27" s="26" t="s">
+        <v>32</v>
+      </c>
+      <c r="F27" s="26" t="s">
+        <v>40</v>
+      </c>
+      <c r="G27" s="28" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C28" s="11" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C29" s="11" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="36" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C36" s="9"/>
+      <c r="D36" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="E36" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="F36" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="G36" s="9"/>
+      <c r="H36" s="9" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="37" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C37" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="D37" s="9">
         <v>218600</v>
       </c>
-      <c r="E30" s="9">
+      <c r="E37" s="9">
         <v>437200</v>
       </c>
-      <c r="F30" s="9">
+      <c r="F37" s="9">
         <v>545</v>
       </c>
-      <c r="G30" s="9"/>
-      <c r="H30" s="9">
+      <c r="G37" s="9"/>
+      <c r="H37" s="9">
         <v>900</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>